--- a/stat-testing-using-interpret-ml/data/iris_20230809.xlsx
+++ b/stat-testing-using-interpret-ml/data/iris_20230809.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://univie365-my.sharepoint.com/personal/steyrld69_univie_ac_at/Documents/ML-Dev/stat-testing-with-interpret-ml/scripts_dev/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://univie365-my.sharepoint.com/personal/steyrld69_univie_ac_at/Documents/ML-dev/stat-testing-with-interpret-ml/scripts/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="11_6C29B7825B70D17783583611595ED87656CDFB56" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7F10839-DEF1-4EF0-BEE0-A28BFCAAFE7E}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="11_6C29B7825B70D17783583611595ED87656CDFB56" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1885CB8-1203-4EA1-A8D3-276C7C9B2212}"/>
   <bookViews>
-    <workbookView xWindow="405" yWindow="900" windowWidth="36915" windowHeight="18405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_2class" sheetId="2" r:id="rId1"/>
@@ -54,14 +54,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -88,13 +88,13 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -399,21 +399,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AA90FA7-3FD0-4EE8-8EB6-D89C22E62F86}">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="8" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -436,19 +438,19 @@
       <c r="A2" s="2">
         <v>0</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="1">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="1">
         <v>3.5</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="1">
         <v>1.4</v>
       </c>
-      <c r="E2" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="F2" s="3">
+      <c r="E2" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F2" s="1">
         <v>0</v>
       </c>
     </row>
@@ -456,19 +458,19 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="1">
         <v>4.9000000000000004</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="1">
         <v>3</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="1">
         <v>1.4</v>
       </c>
-      <c r="E3" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="F3" s="3">
+      <c r="E3" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F3" s="1">
         <v>0</v>
       </c>
     </row>
@@ -476,19 +478,19 @@
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="1">
         <v>4.7</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="1">
         <v>3.2</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="1">
         <v>1.3</v>
       </c>
-      <c r="E4" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="F4" s="3">
+      <c r="E4" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F4" s="1">
         <v>0</v>
       </c>
     </row>
@@ -496,19 +498,19 @@
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="1">
         <v>4.5999999999999996</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="1">
         <v>3.1</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="1">
         <v>1.5</v>
       </c>
-      <c r="E5" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="F5" s="3">
+      <c r="E5" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F5" s="1">
         <v>0</v>
       </c>
     </row>
@@ -516,19 +518,19 @@
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="1">
         <v>5</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="1">
         <v>3.6</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="1">
         <v>1.4</v>
       </c>
-      <c r="E6" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="F6" s="3">
+      <c r="E6" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F6" s="1">
         <v>0</v>
       </c>
     </row>
@@ -536,19 +538,19 @@
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="1">
         <v>5.4</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="1">
         <v>3.9</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="1">
         <v>1.7</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="1">
         <v>0.4</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="1">
         <v>0</v>
       </c>
     </row>
@@ -556,19 +558,19 @@
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="1">
         <v>4.5999999999999996</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="1">
         <v>3.4</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="1">
         <v>1.4</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="1">
         <v>0.3</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="1">
         <v>0</v>
       </c>
     </row>
@@ -576,19 +578,19 @@
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="1">
         <v>5</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="1">
         <v>3.4</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="1">
         <v>1.5</v>
       </c>
-      <c r="E9" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="F9" s="3">
+      <c r="E9" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F9" s="1">
         <v>0</v>
       </c>
     </row>
@@ -596,19 +598,19 @@
       <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="1">
         <v>4.4000000000000004</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="1">
         <v>2.9</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="1">
         <v>1.4</v>
       </c>
-      <c r="E10" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="E10" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F10" s="1">
         <v>0</v>
       </c>
     </row>
@@ -616,19 +618,19 @@
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="1">
         <v>4.9000000000000004</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="1">
         <v>3.1</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="1">
         <v>1.5</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="1">
         <v>0.1</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="1">
         <v>0</v>
       </c>
     </row>
@@ -636,19 +638,19 @@
       <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="1">
         <v>5.4</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="1">
         <v>3.7</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="1">
         <v>1.5</v>
       </c>
-      <c r="E12" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="F12" s="3">
+      <c r="E12" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F12" s="1">
         <v>0</v>
       </c>
     </row>
@@ -656,19 +658,19 @@
       <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="1">
         <v>4.8</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="1">
         <v>3.4</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="1">
         <v>1.6</v>
       </c>
-      <c r="E13" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="F13" s="3">
+      <c r="E13" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F13" s="1">
         <v>0</v>
       </c>
     </row>
@@ -676,19 +678,19 @@
       <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="1">
         <v>4.8</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="1">
         <v>3</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="1">
         <v>1.4</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="1">
         <v>0.1</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="1">
         <v>0</v>
       </c>
     </row>
@@ -696,19 +698,19 @@
       <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="1">
         <v>4.3</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="1">
         <v>3</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="1">
         <v>0.1</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="1">
         <v>0</v>
       </c>
     </row>
@@ -716,19 +718,19 @@
       <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="1">
         <v>5.8</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="1">
         <v>4</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="1">
         <v>1.2</v>
       </c>
-      <c r="E16" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="F16" s="3">
+      <c r="E16" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F16" s="1">
         <v>0</v>
       </c>
     </row>
@@ -736,19 +738,19 @@
       <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="1">
         <v>5.7</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="1">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="1">
         <v>1.5</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="1">
         <v>0.4</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="1">
         <v>0</v>
       </c>
     </row>
@@ -756,19 +758,19 @@
       <c r="A18" s="2">
         <v>16</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="1">
         <v>5.4</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="1">
         <v>3.9</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="1">
         <v>1.3</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="1">
         <v>0.4</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="1">
         <v>0</v>
       </c>
     </row>
@@ -776,19 +778,19 @@
       <c r="A19" s="2">
         <v>17</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="1">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="1">
         <v>3.5</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="1">
         <v>1.4</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="1">
         <v>0.3</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="1">
         <v>0</v>
       </c>
     </row>
@@ -796,19 +798,19 @@
       <c r="A20" s="2">
         <v>18</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="1">
         <v>5.7</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="1">
         <v>3.8</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="1">
         <v>1.7</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="1">
         <v>0.3</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="1">
         <v>0</v>
       </c>
     </row>
@@ -816,19 +818,19 @@
       <c r="A21" s="2">
         <v>19</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="1">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="1">
         <v>3.8</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="1">
         <v>1.5</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="1">
         <v>0.3</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="1">
         <v>0</v>
       </c>
     </row>
@@ -836,19 +838,19 @@
       <c r="A22" s="2">
         <v>20</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="1">
         <v>5.4</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="1">
         <v>3.4</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="1">
         <v>1.7</v>
       </c>
-      <c r="E22" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="F22" s="3">
+      <c r="E22" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F22" s="1">
         <v>0</v>
       </c>
     </row>
@@ -856,19 +858,19 @@
       <c r="A23" s="2">
         <v>21</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="1">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="1">
         <v>3.7</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="1">
         <v>1.5</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="1">
         <v>0.4</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="1">
         <v>0</v>
       </c>
     </row>
@@ -876,19 +878,19 @@
       <c r="A24" s="2">
         <v>22</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="1">
         <v>4.5999999999999996</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="1">
         <v>3.6</v>
       </c>
-      <c r="D24" s="3">
-        <v>1</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="F24" s="3">
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F24" s="1">
         <v>0</v>
       </c>
     </row>
@@ -896,19 +898,19 @@
       <c r="A25" s="2">
         <v>23</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="1">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="1">
         <v>3.3</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="1">
         <v>1.7</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="1">
         <v>0.5</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="1">
         <v>0</v>
       </c>
     </row>
@@ -916,19 +918,19 @@
       <c r="A26" s="2">
         <v>24</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="1">
         <v>4.8</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="1">
         <v>3.4</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="1">
         <v>1.9</v>
       </c>
-      <c r="E26" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="F26" s="3">
+      <c r="E26" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F26" s="1">
         <v>0</v>
       </c>
     </row>
@@ -936,19 +938,19 @@
       <c r="A27" s="2">
         <v>25</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="1">
         <v>5</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="1">
         <v>3</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="1">
         <v>1.6</v>
       </c>
-      <c r="E27" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="F27" s="3">
+      <c r="E27" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F27" s="1">
         <v>0</v>
       </c>
     </row>
@@ -956,19 +958,19 @@
       <c r="A28" s="2">
         <v>26</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="1">
         <v>5</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="1">
         <v>3.4</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="1">
         <v>1.6</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="1">
         <v>0.4</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="1">
         <v>0</v>
       </c>
     </row>
@@ -976,19 +978,19 @@
       <c r="A29" s="2">
         <v>27</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="1">
         <v>5.2</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="1">
         <v>3.5</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="1">
         <v>1.5</v>
       </c>
-      <c r="E29" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="F29" s="3">
+      <c r="E29" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F29" s="1">
         <v>0</v>
       </c>
     </row>
@@ -996,19 +998,19 @@
       <c r="A30" s="2">
         <v>28</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="1">
         <v>5.2</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="1">
         <v>3.4</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="1">
         <v>1.4</v>
       </c>
-      <c r="E30" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="F30" s="3">
+      <c r="E30" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F30" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1016,19 +1018,19 @@
       <c r="A31" s="2">
         <v>29</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="1">
         <v>4.7</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="1">
         <v>3.2</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="1">
         <v>1.6</v>
       </c>
-      <c r="E31" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="F31" s="3">
+      <c r="E31" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F31" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1036,19 +1038,19 @@
       <c r="A32" s="2">
         <v>30</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="1">
         <v>4.8</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="1">
         <v>3.1</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="1">
         <v>1.6</v>
       </c>
-      <c r="E32" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="F32" s="3">
+      <c r="E32" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F32" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1056,19 +1058,19 @@
       <c r="A33" s="2">
         <v>31</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="1">
         <v>5.4</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="1">
         <v>3.4</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="1">
         <v>1.5</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="1">
         <v>0.4</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1076,19 +1078,19 @@
       <c r="A34" s="2">
         <v>32</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="1">
         <v>5.2</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="1">
         <v>4.0999999999999996</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="1">
         <v>1.5</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="1">
         <v>0.1</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1096,19 +1098,19 @@
       <c r="A35" s="2">
         <v>33</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="1">
         <v>5.5</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="1">
         <v>4.2</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="1">
         <v>1.4</v>
       </c>
-      <c r="E35" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="F35" s="3">
+      <c r="E35" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F35" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1116,19 +1118,19 @@
       <c r="A36" s="2">
         <v>34</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="1">
         <v>4.9000000000000004</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="1">
         <v>3.1</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="1">
         <v>1.5</v>
       </c>
-      <c r="E36" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="F36" s="3">
+      <c r="E36" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F36" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1136,19 +1138,19 @@
       <c r="A37" s="2">
         <v>35</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="1">
         <v>5</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="1">
         <v>3.2</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="1">
         <v>1.2</v>
       </c>
-      <c r="E37" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="F37" s="3">
+      <c r="E37" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F37" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1156,19 +1158,19 @@
       <c r="A38" s="2">
         <v>36</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="1">
         <v>5.5</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="1">
         <v>3.5</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="1">
         <v>1.3</v>
       </c>
-      <c r="E38" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="F38" s="3">
+      <c r="E38" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F38" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1176,19 +1178,19 @@
       <c r="A39" s="2">
         <v>37</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="1">
         <v>4.9000000000000004</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="1">
         <v>3.6</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="1">
         <v>1.4</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39" s="1">
         <v>0.1</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1196,19 +1198,19 @@
       <c r="A40" s="2">
         <v>38</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="1">
         <v>4.4000000000000004</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="1">
         <v>3</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="1">
         <v>1.3</v>
       </c>
-      <c r="E40" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="F40" s="3">
+      <c r="E40" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F40" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1216,19 +1218,19 @@
       <c r="A41" s="2">
         <v>39</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="1">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="1">
         <v>3.4</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="1">
         <v>1.5</v>
       </c>
-      <c r="E41" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="F41" s="3">
+      <c r="E41" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F41" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1236,19 +1238,19 @@
       <c r="A42" s="2">
         <v>40</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="1">
         <v>5</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="1">
         <v>3.5</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="1">
         <v>1.3</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="1">
         <v>0.3</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1256,19 +1258,19 @@
       <c r="A43" s="2">
         <v>41</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43" s="1">
         <v>4.5</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="1">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="1">
         <v>1.3</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43" s="1">
         <v>0.3</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1276,19 +1278,19 @@
       <c r="A44" s="2">
         <v>42</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44" s="1">
         <v>4.4000000000000004</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" s="1">
         <v>3.2</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="1">
         <v>1.3</v>
       </c>
-      <c r="E44" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="F44" s="3">
+      <c r="E44" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F44" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1296,19 +1298,19 @@
       <c r="A45" s="2">
         <v>43</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45" s="1">
         <v>5</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45" s="1">
         <v>3.5</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="1">
         <v>1.6</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E45" s="1">
         <v>0.6</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1316,19 +1318,19 @@
       <c r="A46" s="2">
         <v>44</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46" s="1">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46" s="1">
         <v>3.8</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="1">
         <v>1.9</v>
       </c>
-      <c r="E46" s="3">
+      <c r="E46" s="1">
         <v>0.4</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F46" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1336,19 +1338,19 @@
       <c r="A47" s="2">
         <v>45</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47" s="1">
         <v>4.8</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="1">
         <v>3</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="1">
         <v>1.4</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="1">
         <v>0.3</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1356,19 +1358,19 @@
       <c r="A48" s="2">
         <v>46</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48" s="1">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48" s="1">
         <v>3.8</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="1">
         <v>1.6</v>
       </c>
-      <c r="E48" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="F48" s="3">
+      <c r="E48" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F48" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1376,19 +1378,19 @@
       <c r="A49" s="2">
         <v>47</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B49" s="1">
         <v>4.5999999999999996</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49" s="1">
         <v>3.2</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="1">
         <v>1.4</v>
       </c>
-      <c r="E49" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="F49" s="3">
+      <c r="E49" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F49" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1396,19 +1398,19 @@
       <c r="A50" s="2">
         <v>48</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B50" s="1">
         <v>5.3</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C50" s="1">
         <v>3.7</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D50" s="1">
         <v>1.5</v>
       </c>
-      <c r="E50" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="F50" s="3">
+      <c r="E50" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F50" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1416,19 +1418,19 @@
       <c r="A51" s="2">
         <v>49</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B51" s="1">
         <v>5</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51" s="1">
         <v>3.3</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D51" s="1">
         <v>1.4</v>
       </c>
-      <c r="E51" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="F51" s="3">
+      <c r="E51" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F51" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1436,19 +1438,19 @@
       <c r="A52" s="2">
         <v>50</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B52" s="1">
         <v>7</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C52" s="1">
         <v>3.2</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="1">
         <v>4.7</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52" s="1">
         <v>1.4</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1456,19 +1458,19 @@
       <c r="A53" s="2">
         <v>51</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B53" s="1">
         <v>6.4</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C53" s="1">
         <v>3.2</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D53" s="1">
         <v>4.5</v>
       </c>
-      <c r="E53" s="3">
+      <c r="E53" s="1">
         <v>1.5</v>
       </c>
-      <c r="F53" s="3">
+      <c r="F53" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1476,19 +1478,19 @@
       <c r="A54" s="2">
         <v>52</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B54" s="1">
         <v>6.9</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C54" s="1">
         <v>3.1</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54" s="1">
         <v>4.9000000000000004</v>
       </c>
-      <c r="E54" s="3">
+      <c r="E54" s="1">
         <v>1.5</v>
       </c>
-      <c r="F54" s="3">
+      <c r="F54" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1496,19 +1498,19 @@
       <c r="A55" s="2">
         <v>53</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B55" s="1">
         <v>5.5</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C55" s="1">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D55" s="1">
         <v>4</v>
       </c>
-      <c r="E55" s="3">
+      <c r="E55" s="1">
         <v>1.3</v>
       </c>
-      <c r="F55" s="3">
+      <c r="F55" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1516,19 +1518,19 @@
       <c r="A56" s="2">
         <v>54</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B56" s="1">
         <v>6.5</v>
       </c>
-      <c r="C56" s="3">
+      <c r="C56" s="1">
         <v>2.8</v>
       </c>
-      <c r="D56" s="3">
+      <c r="D56" s="1">
         <v>4.5999999999999996</v>
       </c>
-      <c r="E56" s="3">
+      <c r="E56" s="1">
         <v>1.5</v>
       </c>
-      <c r="F56" s="3">
+      <c r="F56" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1536,19 +1538,19 @@
       <c r="A57" s="2">
         <v>55</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B57" s="1">
         <v>5.7</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C57" s="1">
         <v>2.8</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="1">
         <v>4.5</v>
       </c>
-      <c r="E57" s="3">
+      <c r="E57" s="1">
         <v>1.3</v>
       </c>
-      <c r="F57" s="3">
+      <c r="F57" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1556,19 +1558,19 @@
       <c r="A58" s="2">
         <v>56</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B58" s="1">
         <v>6.3</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C58" s="1">
         <v>3.3</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="1">
         <v>4.7</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="1">
         <v>1.6</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1576,19 +1578,19 @@
       <c r="A59" s="2">
         <v>57</v>
       </c>
-      <c r="B59" s="3">
+      <c r="B59" s="1">
         <v>4.9000000000000004</v>
       </c>
-      <c r="C59" s="3">
+      <c r="C59" s="1">
         <v>2.4</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="1">
         <v>3.3</v>
       </c>
-      <c r="E59" s="3">
-        <v>1</v>
-      </c>
-      <c r="F59" s="3">
+      <c r="E59" s="1">
+        <v>1</v>
+      </c>
+      <c r="F59" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1596,19 +1598,19 @@
       <c r="A60" s="2">
         <v>58</v>
       </c>
-      <c r="B60" s="3">
+      <c r="B60" s="1">
         <v>6.6</v>
       </c>
-      <c r="C60" s="3">
+      <c r="C60" s="1">
         <v>2.9</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60" s="1">
         <v>4.5999999999999996</v>
       </c>
-      <c r="E60" s="3">
+      <c r="E60" s="1">
         <v>1.3</v>
       </c>
-      <c r="F60" s="3">
+      <c r="F60" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1616,19 +1618,19 @@
       <c r="A61" s="2">
         <v>59</v>
       </c>
-      <c r="B61" s="3">
+      <c r="B61" s="1">
         <v>5.2</v>
       </c>
-      <c r="C61" s="3">
+      <c r="C61" s="1">
         <v>2.7</v>
       </c>
-      <c r="D61" s="3">
+      <c r="D61" s="1">
         <v>3.9</v>
       </c>
-      <c r="E61" s="3">
+      <c r="E61" s="1">
         <v>1.4</v>
       </c>
-      <c r="F61" s="3">
+      <c r="F61" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1636,19 +1638,19 @@
       <c r="A62" s="2">
         <v>60</v>
       </c>
-      <c r="B62" s="3">
+      <c r="B62" s="1">
         <v>5</v>
       </c>
-      <c r="C62" s="3">
-        <v>2</v>
-      </c>
-      <c r="D62" s="3">
+      <c r="C62" s="1">
+        <v>2</v>
+      </c>
+      <c r="D62" s="1">
         <v>3.5</v>
       </c>
-      <c r="E62" s="3">
-        <v>1</v>
-      </c>
-      <c r="F62" s="3">
+      <c r="E62" s="1">
+        <v>1</v>
+      </c>
+      <c r="F62" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1656,19 +1658,19 @@
       <c r="A63" s="2">
         <v>61</v>
       </c>
-      <c r="B63" s="3">
+      <c r="B63" s="1">
         <v>5.9</v>
       </c>
-      <c r="C63" s="3">
+      <c r="C63" s="1">
         <v>3</v>
       </c>
-      <c r="D63" s="3">
+      <c r="D63" s="1">
         <v>4.2</v>
       </c>
-      <c r="E63" s="3">
+      <c r="E63" s="1">
         <v>1.5</v>
       </c>
-      <c r="F63" s="3">
+      <c r="F63" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1676,19 +1678,19 @@
       <c r="A64" s="2">
         <v>62</v>
       </c>
-      <c r="B64" s="3">
+      <c r="B64" s="1">
         <v>6</v>
       </c>
-      <c r="C64" s="3">
+      <c r="C64" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D64" s="3">
+      <c r="D64" s="1">
         <v>4</v>
       </c>
-      <c r="E64" s="3">
-        <v>1</v>
-      </c>
-      <c r="F64" s="3">
+      <c r="E64" s="1">
+        <v>1</v>
+      </c>
+      <c r="F64" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1696,19 +1698,19 @@
       <c r="A65" s="2">
         <v>63</v>
       </c>
-      <c r="B65" s="3">
+      <c r="B65" s="1">
         <v>6.1</v>
       </c>
-      <c r="C65" s="3">
+      <c r="C65" s="1">
         <v>2.9</v>
       </c>
-      <c r="D65" s="3">
+      <c r="D65" s="1">
         <v>4.7</v>
       </c>
-      <c r="E65" s="3">
+      <c r="E65" s="1">
         <v>1.4</v>
       </c>
-      <c r="F65" s="3">
+      <c r="F65" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1716,19 +1718,19 @@
       <c r="A66" s="2">
         <v>64</v>
       </c>
-      <c r="B66" s="3">
+      <c r="B66" s="1">
         <v>5.6</v>
       </c>
-      <c r="C66" s="3">
+      <c r="C66" s="1">
         <v>2.9</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="1">
         <v>3.6</v>
       </c>
-      <c r="E66" s="3">
+      <c r="E66" s="1">
         <v>1.3</v>
       </c>
-      <c r="F66" s="3">
+      <c r="F66" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1736,19 +1738,19 @@
       <c r="A67" s="2">
         <v>65</v>
       </c>
-      <c r="B67" s="3">
+      <c r="B67" s="1">
         <v>6.7</v>
       </c>
-      <c r="C67" s="3">
+      <c r="C67" s="1">
         <v>3.1</v>
       </c>
-      <c r="D67" s="3">
+      <c r="D67" s="1">
         <v>4.4000000000000004</v>
       </c>
-      <c r="E67" s="3">
+      <c r="E67" s="1">
         <v>1.4</v>
       </c>
-      <c r="F67" s="3">
+      <c r="F67" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1756,19 +1758,19 @@
       <c r="A68" s="2">
         <v>66</v>
       </c>
-      <c r="B68" s="3">
+      <c r="B68" s="1">
         <v>5.6</v>
       </c>
-      <c r="C68" s="3">
+      <c r="C68" s="1">
         <v>3</v>
       </c>
-      <c r="D68" s="3">
+      <c r="D68" s="1">
         <v>4.5</v>
       </c>
-      <c r="E68" s="3">
+      <c r="E68" s="1">
         <v>1.5</v>
       </c>
-      <c r="F68" s="3">
+      <c r="F68" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1776,19 +1778,19 @@
       <c r="A69" s="2">
         <v>67</v>
       </c>
-      <c r="B69" s="3">
+      <c r="B69" s="1">
         <v>5.8</v>
       </c>
-      <c r="C69" s="3">
+      <c r="C69" s="1">
         <v>2.7</v>
       </c>
-      <c r="D69" s="3">
+      <c r="D69" s="1">
         <v>4.0999999999999996</v>
       </c>
-      <c r="E69" s="3">
-        <v>1</v>
-      </c>
-      <c r="F69" s="3">
+      <c r="E69" s="1">
+        <v>1</v>
+      </c>
+      <c r="F69" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1796,19 +1798,19 @@
       <c r="A70" s="2">
         <v>68</v>
       </c>
-      <c r="B70" s="3">
+      <c r="B70" s="1">
         <v>6.2</v>
       </c>
-      <c r="C70" s="3">
+      <c r="C70" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D70" s="3">
+      <c r="D70" s="1">
         <v>4.5</v>
       </c>
-      <c r="E70" s="3">
+      <c r="E70" s="1">
         <v>1.5</v>
       </c>
-      <c r="F70" s="3">
+      <c r="F70" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1816,19 +1818,19 @@
       <c r="A71" s="2">
         <v>69</v>
       </c>
-      <c r="B71" s="3">
+      <c r="B71" s="1">
         <v>5.6</v>
       </c>
-      <c r="C71" s="3">
+      <c r="C71" s="1">
         <v>2.5</v>
       </c>
-      <c r="D71" s="3">
+      <c r="D71" s="1">
         <v>3.9</v>
       </c>
-      <c r="E71" s="3">
+      <c r="E71" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F71" s="3">
+      <c r="F71" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1836,19 +1838,19 @@
       <c r="A72" s="2">
         <v>70</v>
       </c>
-      <c r="B72" s="3">
+      <c r="B72" s="1">
         <v>5.9</v>
       </c>
-      <c r="C72" s="3">
+      <c r="C72" s="1">
         <v>3.2</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="1">
         <v>4.8</v>
       </c>
-      <c r="E72" s="3">
+      <c r="E72" s="1">
         <v>1.8</v>
       </c>
-      <c r="F72" s="3">
+      <c r="F72" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1856,19 +1858,19 @@
       <c r="A73" s="2">
         <v>71</v>
       </c>
-      <c r="B73" s="3">
+      <c r="B73" s="1">
         <v>6.1</v>
       </c>
-      <c r="C73" s="3">
+      <c r="C73" s="1">
         <v>2.8</v>
       </c>
-      <c r="D73" s="3">
+      <c r="D73" s="1">
         <v>4</v>
       </c>
-      <c r="E73" s="3">
+      <c r="E73" s="1">
         <v>1.3</v>
       </c>
-      <c r="F73" s="3">
+      <c r="F73" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1876,19 +1878,19 @@
       <c r="A74" s="2">
         <v>72</v>
       </c>
-      <c r="B74" s="3">
+      <c r="B74" s="1">
         <v>6.3</v>
       </c>
-      <c r="C74" s="3">
+      <c r="C74" s="1">
         <v>2.5</v>
       </c>
-      <c r="D74" s="3">
+      <c r="D74" s="1">
         <v>4.9000000000000004</v>
       </c>
-      <c r="E74" s="3">
+      <c r="E74" s="1">
         <v>1.5</v>
       </c>
-      <c r="F74" s="3">
+      <c r="F74" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1896,19 +1898,19 @@
       <c r="A75" s="2">
         <v>73</v>
       </c>
-      <c r="B75" s="3">
+      <c r="B75" s="1">
         <v>6.1</v>
       </c>
-      <c r="C75" s="3">
+      <c r="C75" s="1">
         <v>2.8</v>
       </c>
-      <c r="D75" s="3">
+      <c r="D75" s="1">
         <v>4.7</v>
       </c>
-      <c r="E75" s="3">
+      <c r="E75" s="1">
         <v>1.2</v>
       </c>
-      <c r="F75" s="3">
+      <c r="F75" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1916,19 +1918,19 @@
       <c r="A76" s="2">
         <v>74</v>
       </c>
-      <c r="B76" s="3">
+      <c r="B76" s="1">
         <v>6.4</v>
       </c>
-      <c r="C76" s="3">
+      <c r="C76" s="1">
         <v>2.9</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="1">
         <v>4.3</v>
       </c>
-      <c r="E76" s="3">
+      <c r="E76" s="1">
         <v>1.3</v>
       </c>
-      <c r="F76" s="3">
+      <c r="F76" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1936,19 +1938,19 @@
       <c r="A77" s="2">
         <v>75</v>
       </c>
-      <c r="B77" s="3">
+      <c r="B77" s="1">
         <v>6.6</v>
       </c>
-      <c r="C77" s="3">
+      <c r="C77" s="1">
         <v>3</v>
       </c>
-      <c r="D77" s="3">
+      <c r="D77" s="1">
         <v>4.4000000000000004</v>
       </c>
-      <c r="E77" s="3">
+      <c r="E77" s="1">
         <v>1.4</v>
       </c>
-      <c r="F77" s="3">
+      <c r="F77" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1956,19 +1958,19 @@
       <c r="A78" s="2">
         <v>76</v>
       </c>
-      <c r="B78" s="3">
+      <c r="B78" s="1">
         <v>6.8</v>
       </c>
-      <c r="C78" s="3">
+      <c r="C78" s="1">
         <v>2.8</v>
       </c>
-      <c r="D78" s="3">
+      <c r="D78" s="1">
         <v>4.8</v>
       </c>
-      <c r="E78" s="3">
+      <c r="E78" s="1">
         <v>1.4</v>
       </c>
-      <c r="F78" s="3">
+      <c r="F78" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1976,19 +1978,19 @@
       <c r="A79" s="2">
         <v>77</v>
       </c>
-      <c r="B79" s="3">
+      <c r="B79" s="1">
         <v>6.7</v>
       </c>
-      <c r="C79" s="3">
+      <c r="C79" s="1">
         <v>3</v>
       </c>
-      <c r="D79" s="3">
+      <c r="D79" s="1">
         <v>5</v>
       </c>
-      <c r="E79" s="3">
+      <c r="E79" s="1">
         <v>1.7</v>
       </c>
-      <c r="F79" s="3">
+      <c r="F79" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1996,19 +1998,19 @@
       <c r="A80" s="2">
         <v>78</v>
       </c>
-      <c r="B80" s="3">
+      <c r="B80" s="1">
         <v>6</v>
       </c>
-      <c r="C80" s="3">
+      <c r="C80" s="1">
         <v>2.9</v>
       </c>
-      <c r="D80" s="3">
+      <c r="D80" s="1">
         <v>4.5</v>
       </c>
-      <c r="E80" s="3">
+      <c r="E80" s="1">
         <v>1.5</v>
       </c>
-      <c r="F80" s="3">
+      <c r="F80" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2016,19 +2018,19 @@
       <c r="A81" s="2">
         <v>79</v>
       </c>
-      <c r="B81" s="3">
+      <c r="B81" s="1">
         <v>5.7</v>
       </c>
-      <c r="C81" s="3">
+      <c r="C81" s="1">
         <v>2.6</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="1">
         <v>3.5</v>
       </c>
-      <c r="E81" s="3">
-        <v>1</v>
-      </c>
-      <c r="F81" s="3">
+      <c r="E81" s="1">
+        <v>1</v>
+      </c>
+      <c r="F81" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2036,19 +2038,19 @@
       <c r="A82" s="2">
         <v>80</v>
       </c>
-      <c r="B82" s="3">
+      <c r="B82" s="1">
         <v>5.5</v>
       </c>
-      <c r="C82" s="3">
+      <c r="C82" s="1">
         <v>2.4</v>
       </c>
-      <c r="D82" s="3">
+      <c r="D82" s="1">
         <v>3.8</v>
       </c>
-      <c r="E82" s="3">
+      <c r="E82" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F82" s="3">
+      <c r="F82" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2056,19 +2058,19 @@
       <c r="A83" s="2">
         <v>81</v>
       </c>
-      <c r="B83" s="3">
+      <c r="B83" s="1">
         <v>5.5</v>
       </c>
-      <c r="C83" s="3">
+      <c r="C83" s="1">
         <v>2.4</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="1">
         <v>3.7</v>
       </c>
-      <c r="E83" s="3">
-        <v>1</v>
-      </c>
-      <c r="F83" s="3">
+      <c r="E83" s="1">
+        <v>1</v>
+      </c>
+      <c r="F83" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2076,19 +2078,19 @@
       <c r="A84" s="2">
         <v>82</v>
       </c>
-      <c r="B84" s="3">
+      <c r="B84" s="1">
         <v>5.8</v>
       </c>
-      <c r="C84" s="3">
+      <c r="C84" s="1">
         <v>2.7</v>
       </c>
-      <c r="D84" s="3">
+      <c r="D84" s="1">
         <v>3.9</v>
       </c>
-      <c r="E84" s="3">
+      <c r="E84" s="1">
         <v>1.2</v>
       </c>
-      <c r="F84" s="3">
+      <c r="F84" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2096,19 +2098,19 @@
       <c r="A85" s="2">
         <v>83</v>
       </c>
-      <c r="B85" s="3">
+      <c r="B85" s="1">
         <v>6</v>
       </c>
-      <c r="C85" s="3">
+      <c r="C85" s="1">
         <v>2.7</v>
       </c>
-      <c r="D85" s="3">
+      <c r="D85" s="1">
         <v>5.0999999999999996</v>
       </c>
-      <c r="E85" s="3">
+      <c r="E85" s="1">
         <v>1.6</v>
       </c>
-      <c r="F85" s="3">
+      <c r="F85" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2116,19 +2118,19 @@
       <c r="A86" s="2">
         <v>84</v>
       </c>
-      <c r="B86" s="3">
+      <c r="B86" s="1">
         <v>5.4</v>
       </c>
-      <c r="C86" s="3">
+      <c r="C86" s="1">
         <v>3</v>
       </c>
-      <c r="D86" s="3">
+      <c r="D86" s="1">
         <v>4.5</v>
       </c>
-      <c r="E86" s="3">
+      <c r="E86" s="1">
         <v>1.5</v>
       </c>
-      <c r="F86" s="3">
+      <c r="F86" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2136,19 +2138,19 @@
       <c r="A87" s="2">
         <v>85</v>
       </c>
-      <c r="B87" s="3">
+      <c r="B87" s="1">
         <v>6</v>
       </c>
-      <c r="C87" s="3">
+      <c r="C87" s="1">
         <v>3.4</v>
       </c>
-      <c r="D87" s="3">
+      <c r="D87" s="1">
         <v>4.5</v>
       </c>
-      <c r="E87" s="3">
+      <c r="E87" s="1">
         <v>1.6</v>
       </c>
-      <c r="F87" s="3">
+      <c r="F87" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2156,19 +2158,19 @@
       <c r="A88" s="2">
         <v>86</v>
       </c>
-      <c r="B88" s="3">
+      <c r="B88" s="1">
         <v>6.7</v>
       </c>
-      <c r="C88" s="3">
+      <c r="C88" s="1">
         <v>3.1</v>
       </c>
-      <c r="D88" s="3">
+      <c r="D88" s="1">
         <v>4.7</v>
       </c>
-      <c r="E88" s="3">
+      <c r="E88" s="1">
         <v>1.5</v>
       </c>
-      <c r="F88" s="3">
+      <c r="F88" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2176,19 +2178,19 @@
       <c r="A89" s="2">
         <v>87</v>
       </c>
-      <c r="B89" s="3">
+      <c r="B89" s="1">
         <v>6.3</v>
       </c>
-      <c r="C89" s="3">
+      <c r="C89" s="1">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89" s="1">
         <v>4.4000000000000004</v>
       </c>
-      <c r="E89" s="3">
+      <c r="E89" s="1">
         <v>1.3</v>
       </c>
-      <c r="F89" s="3">
+      <c r="F89" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2196,19 +2198,19 @@
       <c r="A90" s="2">
         <v>88</v>
       </c>
-      <c r="B90" s="3">
+      <c r="B90" s="1">
         <v>5.6</v>
       </c>
-      <c r="C90" s="3">
+      <c r="C90" s="1">
         <v>3</v>
       </c>
-      <c r="D90" s="3">
+      <c r="D90" s="1">
         <v>4.0999999999999996</v>
       </c>
-      <c r="E90" s="3">
+      <c r="E90" s="1">
         <v>1.3</v>
       </c>
-      <c r="F90" s="3">
+      <c r="F90" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2216,19 +2218,19 @@
       <c r="A91" s="2">
         <v>89</v>
       </c>
-      <c r="B91" s="3">
+      <c r="B91" s="1">
         <v>5.5</v>
       </c>
-      <c r="C91" s="3">
+      <c r="C91" s="1">
         <v>2.5</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="1">
         <v>4</v>
       </c>
-      <c r="E91" s="3">
+      <c r="E91" s="1">
         <v>1.3</v>
       </c>
-      <c r="F91" s="3">
+      <c r="F91" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2236,19 +2238,19 @@
       <c r="A92" s="2">
         <v>90</v>
       </c>
-      <c r="B92" s="3">
+      <c r="B92" s="1">
         <v>5.5</v>
       </c>
-      <c r="C92" s="3">
+      <c r="C92" s="1">
         <v>2.6</v>
       </c>
-      <c r="D92" s="3">
+      <c r="D92" s="1">
         <v>4.4000000000000004</v>
       </c>
-      <c r="E92" s="3">
+      <c r="E92" s="1">
         <v>1.2</v>
       </c>
-      <c r="F92" s="3">
+      <c r="F92" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2256,19 +2258,19 @@
       <c r="A93" s="2">
         <v>91</v>
       </c>
-      <c r="B93" s="3">
+      <c r="B93" s="1">
         <v>6.1</v>
       </c>
-      <c r="C93" s="3">
+      <c r="C93" s="1">
         <v>3</v>
       </c>
-      <c r="D93" s="3">
+      <c r="D93" s="1">
         <v>4.5999999999999996</v>
       </c>
-      <c r="E93" s="3">
+      <c r="E93" s="1">
         <v>1.4</v>
       </c>
-      <c r="F93" s="3">
+      <c r="F93" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2276,19 +2278,19 @@
       <c r="A94" s="2">
         <v>92</v>
       </c>
-      <c r="B94" s="3">
+      <c r="B94" s="1">
         <v>5.8</v>
       </c>
-      <c r="C94" s="3">
+      <c r="C94" s="1">
         <v>2.6</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94" s="1">
         <v>4</v>
       </c>
-      <c r="E94" s="3">
+      <c r="E94" s="1">
         <v>1.2</v>
       </c>
-      <c r="F94" s="3">
+      <c r="F94" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2296,19 +2298,19 @@
       <c r="A95" s="2">
         <v>93</v>
       </c>
-      <c r="B95" s="3">
+      <c r="B95" s="1">
         <v>5</v>
       </c>
-      <c r="C95" s="3">
+      <c r="C95" s="1">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D95" s="3">
+      <c r="D95" s="1">
         <v>3.3</v>
       </c>
-      <c r="E95" s="3">
-        <v>1</v>
-      </c>
-      <c r="F95" s="3">
+      <c r="E95" s="1">
+        <v>1</v>
+      </c>
+      <c r="F95" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2316,19 +2318,19 @@
       <c r="A96" s="2">
         <v>94</v>
       </c>
-      <c r="B96" s="3">
+      <c r="B96" s="1">
         <v>5.6</v>
       </c>
-      <c r="C96" s="3">
+      <c r="C96" s="1">
         <v>2.7</v>
       </c>
-      <c r="D96" s="3">
+      <c r="D96" s="1">
         <v>4.2</v>
       </c>
-      <c r="E96" s="3">
+      <c r="E96" s="1">
         <v>1.3</v>
       </c>
-      <c r="F96" s="3">
+      <c r="F96" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2336,19 +2338,19 @@
       <c r="A97" s="2">
         <v>95</v>
       </c>
-      <c r="B97" s="3">
+      <c r="B97" s="1">
         <v>5.7</v>
       </c>
-      <c r="C97" s="3">
+      <c r="C97" s="1">
         <v>3</v>
       </c>
-      <c r="D97" s="3">
+      <c r="D97" s="1">
         <v>4.2</v>
       </c>
-      <c r="E97" s="3">
+      <c r="E97" s="1">
         <v>1.2</v>
       </c>
-      <c r="F97" s="3">
+      <c r="F97" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2356,19 +2358,19 @@
       <c r="A98" s="2">
         <v>96</v>
       </c>
-      <c r="B98" s="3">
+      <c r="B98" s="1">
         <v>5.7</v>
       </c>
-      <c r="C98" s="3">
+      <c r="C98" s="1">
         <v>2.9</v>
       </c>
-      <c r="D98" s="3">
+      <c r="D98" s="1">
         <v>4.2</v>
       </c>
-      <c r="E98" s="3">
+      <c r="E98" s="1">
         <v>1.3</v>
       </c>
-      <c r="F98" s="3">
+      <c r="F98" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2376,19 +2378,19 @@
       <c r="A99" s="2">
         <v>97</v>
       </c>
-      <c r="B99" s="3">
+      <c r="B99" s="1">
         <v>6.2</v>
       </c>
-      <c r="C99" s="3">
+      <c r="C99" s="1">
         <v>2.9</v>
       </c>
-      <c r="D99" s="3">
+      <c r="D99" s="1">
         <v>4.3</v>
       </c>
-      <c r="E99" s="3">
+      <c r="E99" s="1">
         <v>1.3</v>
       </c>
-      <c r="F99" s="3">
+      <c r="F99" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2396,19 +2398,19 @@
       <c r="A100" s="2">
         <v>98</v>
       </c>
-      <c r="B100" s="3">
+      <c r="B100" s="1">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C100" s="3">
+      <c r="C100" s="1">
         <v>2.5</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100" s="1">
         <v>3</v>
       </c>
-      <c r="E100" s="3">
+      <c r="E100" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F100" s="3">
+      <c r="F100" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2416,19 +2418,19 @@
       <c r="A101" s="2">
         <v>99</v>
       </c>
-      <c r="B101" s="3">
+      <c r="B101" s="1">
         <v>5.7</v>
       </c>
-      <c r="C101" s="3">
+      <c r="C101" s="1">
         <v>2.8</v>
       </c>
-      <c r="D101" s="3">
+      <c r="D101" s="1">
         <v>4.0999999999999996</v>
       </c>
-      <c r="E101" s="3">
+      <c r="E101" s="1">
         <v>1.3</v>
       </c>
-      <c r="F101" s="3">
+      <c r="F101" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2441,21 +2443,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F151"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -2478,19 +2482,19 @@
       <c r="A2" s="2">
         <v>0</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="1">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="1">
         <v>3.5</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="1">
         <v>1.4</v>
       </c>
-      <c r="E2" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="F2" s="3">
+      <c r="E2" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F2" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2498,19 +2502,19 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="1">
         <v>4.9000000000000004</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="1">
         <v>3</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="1">
         <v>1.4</v>
       </c>
-      <c r="E3" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="F3" s="3">
+      <c r="E3" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F3" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2518,19 +2522,19 @@
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="1">
         <v>4.7</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="1">
         <v>3.2</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="1">
         <v>1.3</v>
       </c>
-      <c r="E4" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="F4" s="3">
+      <c r="E4" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F4" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2538,19 +2542,19 @@
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="1">
         <v>4.5999999999999996</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="1">
         <v>3.1</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="1">
         <v>1.5</v>
       </c>
-      <c r="E5" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="F5" s="3">
+      <c r="E5" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F5" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2558,19 +2562,19 @@
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="1">
         <v>5</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="1">
         <v>3.6</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="1">
         <v>1.4</v>
       </c>
-      <c r="E6" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="F6" s="3">
+      <c r="E6" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F6" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2578,19 +2582,19 @@
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="1">
         <v>5.4</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="1">
         <v>3.9</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="1">
         <v>1.7</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="1">
         <v>0.4</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2598,19 +2602,19 @@
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="1">
         <v>4.5999999999999996</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="1">
         <v>3.4</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="1">
         <v>1.4</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="1">
         <v>0.3</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2618,19 +2622,19 @@
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="1">
         <v>5</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="1">
         <v>3.4</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="1">
         <v>1.5</v>
       </c>
-      <c r="E9" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="F9" s="3">
+      <c r="E9" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F9" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2638,19 +2642,19 @@
       <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="1">
         <v>4.4000000000000004</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="1">
         <v>2.9</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="1">
         <v>1.4</v>
       </c>
-      <c r="E10" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="E10" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F10" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2658,19 +2662,19 @@
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="1">
         <v>4.9000000000000004</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="1">
         <v>3.1</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="1">
         <v>1.5</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="1">
         <v>0.1</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2678,19 +2682,19 @@
       <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="1">
         <v>5.4</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="1">
         <v>3.7</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="1">
         <v>1.5</v>
       </c>
-      <c r="E12" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="F12" s="3">
+      <c r="E12" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F12" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2698,19 +2702,19 @@
       <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="1">
         <v>4.8</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="1">
         <v>3.4</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="1">
         <v>1.6</v>
       </c>
-      <c r="E13" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="F13" s="3">
+      <c r="E13" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F13" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2718,19 +2722,19 @@
       <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="1">
         <v>4.8</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="1">
         <v>3</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="1">
         <v>1.4</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="1">
         <v>0.1</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2738,19 +2742,19 @@
       <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="1">
         <v>4.3</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="1">
         <v>3</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="1">
         <v>0.1</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2758,19 +2762,19 @@
       <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="1">
         <v>5.8</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="1">
         <v>4</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="1">
         <v>1.2</v>
       </c>
-      <c r="E16" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="F16" s="3">
+      <c r="E16" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F16" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2778,19 +2782,19 @@
       <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="1">
         <v>5.7</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="1">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="1">
         <v>1.5</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="1">
         <v>0.4</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2798,19 +2802,19 @@
       <c r="A18" s="2">
         <v>16</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="1">
         <v>5.4</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="1">
         <v>3.9</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="1">
         <v>1.3</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="1">
         <v>0.4</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2818,19 +2822,19 @@
       <c r="A19" s="2">
         <v>17</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="1">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="1">
         <v>3.5</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="1">
         <v>1.4</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="1">
         <v>0.3</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2838,19 +2842,19 @@
       <c r="A20" s="2">
         <v>18</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="1">
         <v>5.7</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="1">
         <v>3.8</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="1">
         <v>1.7</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="1">
         <v>0.3</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2858,19 +2862,19 @@
       <c r="A21" s="2">
         <v>19</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="1">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="1">
         <v>3.8</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="1">
         <v>1.5</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="1">
         <v>0.3</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2878,19 +2882,19 @@
       <c r="A22" s="2">
         <v>20</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="1">
         <v>5.4</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="1">
         <v>3.4</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="1">
         <v>1.7</v>
       </c>
-      <c r="E22" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="F22" s="3">
+      <c r="E22" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F22" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2898,19 +2902,19 @@
       <c r="A23" s="2">
         <v>21</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="1">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="1">
         <v>3.7</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="1">
         <v>1.5</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="1">
         <v>0.4</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2918,19 +2922,19 @@
       <c r="A24" s="2">
         <v>22</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="1">
         <v>4.5999999999999996</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="1">
         <v>3.6</v>
       </c>
-      <c r="D24" s="3">
-        <v>1</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="F24" s="3">
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F24" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2938,19 +2942,19 @@
       <c r="A25" s="2">
         <v>23</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="1">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="1">
         <v>3.3</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="1">
         <v>1.7</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="1">
         <v>0.5</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2958,19 +2962,19 @@
       <c r="A26" s="2">
         <v>24</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="1">
         <v>4.8</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="1">
         <v>3.4</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="1">
         <v>1.9</v>
       </c>
-      <c r="E26" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="F26" s="3">
+      <c r="E26" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F26" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2978,19 +2982,19 @@
       <c r="A27" s="2">
         <v>25</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="1">
         <v>5</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="1">
         <v>3</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="1">
         <v>1.6</v>
       </c>
-      <c r="E27" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="F27" s="3">
+      <c r="E27" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F27" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2998,19 +3002,19 @@
       <c r="A28" s="2">
         <v>26</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="1">
         <v>5</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="1">
         <v>3.4</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="1">
         <v>1.6</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="1">
         <v>0.4</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3018,19 +3022,19 @@
       <c r="A29" s="2">
         <v>27</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="1">
         <v>5.2</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="1">
         <v>3.5</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="1">
         <v>1.5</v>
       </c>
-      <c r="E29" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="F29" s="3">
+      <c r="E29" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F29" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3038,19 +3042,19 @@
       <c r="A30" s="2">
         <v>28</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="1">
         <v>5.2</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="1">
         <v>3.4</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="1">
         <v>1.4</v>
       </c>
-      <c r="E30" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="F30" s="3">
+      <c r="E30" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F30" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3058,19 +3062,19 @@
       <c r="A31" s="2">
         <v>29</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="1">
         <v>4.7</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="1">
         <v>3.2</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="1">
         <v>1.6</v>
       </c>
-      <c r="E31" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="F31" s="3">
+      <c r="E31" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F31" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3078,19 +3082,19 @@
       <c r="A32" s="2">
         <v>30</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="1">
         <v>4.8</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="1">
         <v>3.1</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="1">
         <v>1.6</v>
       </c>
-      <c r="E32" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="F32" s="3">
+      <c r="E32" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F32" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3098,19 +3102,19 @@
       <c r="A33" s="2">
         <v>31</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="1">
         <v>5.4</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="1">
         <v>3.4</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="1">
         <v>1.5</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="1">
         <v>0.4</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3118,19 +3122,19 @@
       <c r="A34" s="2">
         <v>32</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="1">
         <v>5.2</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="1">
         <v>4.0999999999999996</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="1">
         <v>1.5</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="1">
         <v>0.1</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3138,19 +3142,19 @@
       <c r="A35" s="2">
         <v>33</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="1">
         <v>5.5</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="1">
         <v>4.2</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="1">
         <v>1.4</v>
       </c>
-      <c r="E35" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="F35" s="3">
+      <c r="E35" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F35" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3158,19 +3162,19 @@
       <c r="A36" s="2">
         <v>34</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="1">
         <v>4.9000000000000004</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="1">
         <v>3.1</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="1">
         <v>1.5</v>
       </c>
-      <c r="E36" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="F36" s="3">
+      <c r="E36" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F36" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3178,19 +3182,19 @@
       <c r="A37" s="2">
         <v>35</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="1">
         <v>5</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="1">
         <v>3.2</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="1">
         <v>1.2</v>
       </c>
-      <c r="E37" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="F37" s="3">
+      <c r="E37" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F37" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3198,19 +3202,19 @@
       <c r="A38" s="2">
         <v>36</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="1">
         <v>5.5</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="1">
         <v>3.5</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="1">
         <v>1.3</v>
       </c>
-      <c r="E38" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="F38" s="3">
+      <c r="E38" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F38" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3218,19 +3222,19 @@
       <c r="A39" s="2">
         <v>37</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="1">
         <v>4.9000000000000004</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="1">
         <v>3.6</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="1">
         <v>1.4</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39" s="1">
         <v>0.1</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3238,19 +3242,19 @@
       <c r="A40" s="2">
         <v>38</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="1">
         <v>4.4000000000000004</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="1">
         <v>3</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="1">
         <v>1.3</v>
       </c>
-      <c r="E40" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="F40" s="3">
+      <c r="E40" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F40" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3258,19 +3262,19 @@
       <c r="A41" s="2">
         <v>39</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="1">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="1">
         <v>3.4</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="1">
         <v>1.5</v>
       </c>
-      <c r="E41" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="F41" s="3">
+      <c r="E41" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F41" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3278,19 +3282,19 @@
       <c r="A42" s="2">
         <v>40</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="1">
         <v>5</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="1">
         <v>3.5</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="1">
         <v>1.3</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="1">
         <v>0.3</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3298,19 +3302,19 @@
       <c r="A43" s="2">
         <v>41</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43" s="1">
         <v>4.5</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="1">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="1">
         <v>1.3</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43" s="1">
         <v>0.3</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3318,19 +3322,19 @@
       <c r="A44" s="2">
         <v>42</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44" s="1">
         <v>4.4000000000000004</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" s="1">
         <v>3.2</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="1">
         <v>1.3</v>
       </c>
-      <c r="E44" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="F44" s="3">
+      <c r="E44" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F44" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3338,19 +3342,19 @@
       <c r="A45" s="2">
         <v>43</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45" s="1">
         <v>5</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45" s="1">
         <v>3.5</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="1">
         <v>1.6</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E45" s="1">
         <v>0.6</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3358,19 +3362,19 @@
       <c r="A46" s="2">
         <v>44</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46" s="1">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46" s="1">
         <v>3.8</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="1">
         <v>1.9</v>
       </c>
-      <c r="E46" s="3">
+      <c r="E46" s="1">
         <v>0.4</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F46" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3378,19 +3382,19 @@
       <c r="A47" s="2">
         <v>45</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47" s="1">
         <v>4.8</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="1">
         <v>3</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="1">
         <v>1.4</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="1">
         <v>0.3</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3398,19 +3402,19 @@
       <c r="A48" s="2">
         <v>46</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48" s="1">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48" s="1">
         <v>3.8</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="1">
         <v>1.6</v>
       </c>
-      <c r="E48" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="F48" s="3">
+      <c r="E48" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F48" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3418,19 +3422,19 @@
       <c r="A49" s="2">
         <v>47</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B49" s="1">
         <v>4.5999999999999996</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49" s="1">
         <v>3.2</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="1">
         <v>1.4</v>
       </c>
-      <c r="E49" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="F49" s="3">
+      <c r="E49" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F49" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3438,19 +3442,19 @@
       <c r="A50" s="2">
         <v>48</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B50" s="1">
         <v>5.3</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C50" s="1">
         <v>3.7</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D50" s="1">
         <v>1.5</v>
       </c>
-      <c r="E50" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="F50" s="3">
+      <c r="E50" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F50" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3458,19 +3462,19 @@
       <c r="A51" s="2">
         <v>49</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B51" s="1">
         <v>5</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51" s="1">
         <v>3.3</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D51" s="1">
         <v>1.4</v>
       </c>
-      <c r="E51" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="F51" s="3">
+      <c r="E51" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F51" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3478,19 +3482,19 @@
       <c r="A52" s="2">
         <v>50</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B52" s="1">
         <v>7</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C52" s="1">
         <v>3.2</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="1">
         <v>4.7</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52" s="1">
         <v>1.4</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3498,19 +3502,19 @@
       <c r="A53" s="2">
         <v>51</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B53" s="1">
         <v>6.4</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C53" s="1">
         <v>3.2</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D53" s="1">
         <v>4.5</v>
       </c>
-      <c r="E53" s="3">
+      <c r="E53" s="1">
         <v>1.5</v>
       </c>
-      <c r="F53" s="3">
+      <c r="F53" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3518,19 +3522,19 @@
       <c r="A54" s="2">
         <v>52</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B54" s="1">
         <v>6.9</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C54" s="1">
         <v>3.1</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54" s="1">
         <v>4.9000000000000004</v>
       </c>
-      <c r="E54" s="3">
+      <c r="E54" s="1">
         <v>1.5</v>
       </c>
-      <c r="F54" s="3">
+      <c r="F54" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3538,19 +3542,19 @@
       <c r="A55" s="2">
         <v>53</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B55" s="1">
         <v>5.5</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C55" s="1">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D55" s="1">
         <v>4</v>
       </c>
-      <c r="E55" s="3">
+      <c r="E55" s="1">
         <v>1.3</v>
       </c>
-      <c r="F55" s="3">
+      <c r="F55" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3558,19 +3562,19 @@
       <c r="A56" s="2">
         <v>54</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B56" s="1">
         <v>6.5</v>
       </c>
-      <c r="C56" s="3">
+      <c r="C56" s="1">
         <v>2.8</v>
       </c>
-      <c r="D56" s="3">
+      <c r="D56" s="1">
         <v>4.5999999999999996</v>
       </c>
-      <c r="E56" s="3">
+      <c r="E56" s="1">
         <v>1.5</v>
       </c>
-      <c r="F56" s="3">
+      <c r="F56" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3578,19 +3582,19 @@
       <c r="A57" s="2">
         <v>55</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B57" s="1">
         <v>5.7</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C57" s="1">
         <v>2.8</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="1">
         <v>4.5</v>
       </c>
-      <c r="E57" s="3">
+      <c r="E57" s="1">
         <v>1.3</v>
       </c>
-      <c r="F57" s="3">
+      <c r="F57" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3598,19 +3602,19 @@
       <c r="A58" s="2">
         <v>56</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B58" s="1">
         <v>6.3</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C58" s="1">
         <v>3.3</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="1">
         <v>4.7</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="1">
         <v>1.6</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3618,19 +3622,19 @@
       <c r="A59" s="2">
         <v>57</v>
       </c>
-      <c r="B59" s="3">
+      <c r="B59" s="1">
         <v>4.9000000000000004</v>
       </c>
-      <c r="C59" s="3">
+      <c r="C59" s="1">
         <v>2.4</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="1">
         <v>3.3</v>
       </c>
-      <c r="E59" s="3">
-        <v>1</v>
-      </c>
-      <c r="F59" s="3">
+      <c r="E59" s="1">
+        <v>1</v>
+      </c>
+      <c r="F59" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3638,19 +3642,19 @@
       <c r="A60" s="2">
         <v>58</v>
       </c>
-      <c r="B60" s="3">
+      <c r="B60" s="1">
         <v>6.6</v>
       </c>
-      <c r="C60" s="3">
+      <c r="C60" s="1">
         <v>2.9</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60" s="1">
         <v>4.5999999999999996</v>
       </c>
-      <c r="E60" s="3">
+      <c r="E60" s="1">
         <v>1.3</v>
       </c>
-      <c r="F60" s="3">
+      <c r="F60" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3658,19 +3662,19 @@
       <c r="A61" s="2">
         <v>59</v>
       </c>
-      <c r="B61" s="3">
+      <c r="B61" s="1">
         <v>5.2</v>
       </c>
-      <c r="C61" s="3">
+      <c r="C61" s="1">
         <v>2.7</v>
       </c>
-      <c r="D61" s="3">
+      <c r="D61" s="1">
         <v>3.9</v>
       </c>
-      <c r="E61" s="3">
+      <c r="E61" s="1">
         <v>1.4</v>
       </c>
-      <c r="F61" s="3">
+      <c r="F61" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3678,19 +3682,19 @@
       <c r="A62" s="2">
         <v>60</v>
       </c>
-      <c r="B62" s="3">
+      <c r="B62" s="1">
         <v>5</v>
       </c>
-      <c r="C62" s="3">
-        <v>2</v>
-      </c>
-      <c r="D62" s="3">
+      <c r="C62" s="1">
+        <v>2</v>
+      </c>
+      <c r="D62" s="1">
         <v>3.5</v>
       </c>
-      <c r="E62" s="3">
-        <v>1</v>
-      </c>
-      <c r="F62" s="3">
+      <c r="E62" s="1">
+        <v>1</v>
+      </c>
+      <c r="F62" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3698,19 +3702,19 @@
       <c r="A63" s="2">
         <v>61</v>
       </c>
-      <c r="B63" s="3">
+      <c r="B63" s="1">
         <v>5.9</v>
       </c>
-      <c r="C63" s="3">
+      <c r="C63" s="1">
         <v>3</v>
       </c>
-      <c r="D63" s="3">
+      <c r="D63" s="1">
         <v>4.2</v>
       </c>
-      <c r="E63" s="3">
+      <c r="E63" s="1">
         <v>1.5</v>
       </c>
-      <c r="F63" s="3">
+      <c r="F63" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3718,19 +3722,19 @@
       <c r="A64" s="2">
         <v>62</v>
       </c>
-      <c r="B64" s="3">
+      <c r="B64" s="1">
         <v>6</v>
       </c>
-      <c r="C64" s="3">
+      <c r="C64" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D64" s="3">
+      <c r="D64" s="1">
         <v>4</v>
       </c>
-      <c r="E64" s="3">
-        <v>1</v>
-      </c>
-      <c r="F64" s="3">
+      <c r="E64" s="1">
+        <v>1</v>
+      </c>
+      <c r="F64" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3738,19 +3742,19 @@
       <c r="A65" s="2">
         <v>63</v>
       </c>
-      <c r="B65" s="3">
+      <c r="B65" s="1">
         <v>6.1</v>
       </c>
-      <c r="C65" s="3">
+      <c r="C65" s="1">
         <v>2.9</v>
       </c>
-      <c r="D65" s="3">
+      <c r="D65" s="1">
         <v>4.7</v>
       </c>
-      <c r="E65" s="3">
+      <c r="E65" s="1">
         <v>1.4</v>
       </c>
-      <c r="F65" s="3">
+      <c r="F65" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3758,19 +3762,19 @@
       <c r="A66" s="2">
         <v>64</v>
       </c>
-      <c r="B66" s="3">
+      <c r="B66" s="1">
         <v>5.6</v>
       </c>
-      <c r="C66" s="3">
+      <c r="C66" s="1">
         <v>2.9</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="1">
         <v>3.6</v>
       </c>
-      <c r="E66" s="3">
+      <c r="E66" s="1">
         <v>1.3</v>
       </c>
-      <c r="F66" s="3">
+      <c r="F66" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3778,19 +3782,19 @@
       <c r="A67" s="2">
         <v>65</v>
       </c>
-      <c r="B67" s="3">
+      <c r="B67" s="1">
         <v>6.7</v>
       </c>
-      <c r="C67" s="3">
+      <c r="C67" s="1">
         <v>3.1</v>
       </c>
-      <c r="D67" s="3">
+      <c r="D67" s="1">
         <v>4.4000000000000004</v>
       </c>
-      <c r="E67" s="3">
+      <c r="E67" s="1">
         <v>1.4</v>
       </c>
-      <c r="F67" s="3">
+      <c r="F67" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3798,19 +3802,19 @@
       <c r="A68" s="2">
         <v>66</v>
       </c>
-      <c r="B68" s="3">
+      <c r="B68" s="1">
         <v>5.6</v>
       </c>
-      <c r="C68" s="3">
+      <c r="C68" s="1">
         <v>3</v>
       </c>
-      <c r="D68" s="3">
+      <c r="D68" s="1">
         <v>4.5</v>
       </c>
-      <c r="E68" s="3">
+      <c r="E68" s="1">
         <v>1.5</v>
       </c>
-      <c r="F68" s="3">
+      <c r="F68" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3818,19 +3822,19 @@
       <c r="A69" s="2">
         <v>67</v>
       </c>
-      <c r="B69" s="3">
+      <c r="B69" s="1">
         <v>5.8</v>
       </c>
-      <c r="C69" s="3">
+      <c r="C69" s="1">
         <v>2.7</v>
       </c>
-      <c r="D69" s="3">
+      <c r="D69" s="1">
         <v>4.0999999999999996</v>
       </c>
-      <c r="E69" s="3">
-        <v>1</v>
-      </c>
-      <c r="F69" s="3">
+      <c r="E69" s="1">
+        <v>1</v>
+      </c>
+      <c r="F69" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3838,19 +3842,19 @@
       <c r="A70" s="2">
         <v>68</v>
       </c>
-      <c r="B70" s="3">
+      <c r="B70" s="1">
         <v>6.2</v>
       </c>
-      <c r="C70" s="3">
+      <c r="C70" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D70" s="3">
+      <c r="D70" s="1">
         <v>4.5</v>
       </c>
-      <c r="E70" s="3">
+      <c r="E70" s="1">
         <v>1.5</v>
       </c>
-      <c r="F70" s="3">
+      <c r="F70" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3858,19 +3862,19 @@
       <c r="A71" s="2">
         <v>69</v>
       </c>
-      <c r="B71" s="3">
+      <c r="B71" s="1">
         <v>5.6</v>
       </c>
-      <c r="C71" s="3">
+      <c r="C71" s="1">
         <v>2.5</v>
       </c>
-      <c r="D71" s="3">
+      <c r="D71" s="1">
         <v>3.9</v>
       </c>
-      <c r="E71" s="3">
+      <c r="E71" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F71" s="3">
+      <c r="F71" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3878,19 +3882,19 @@
       <c r="A72" s="2">
         <v>70</v>
       </c>
-      <c r="B72" s="3">
+      <c r="B72" s="1">
         <v>5.9</v>
       </c>
-      <c r="C72" s="3">
+      <c r="C72" s="1">
         <v>3.2</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="1">
         <v>4.8</v>
       </c>
-      <c r="E72" s="3">
+      <c r="E72" s="1">
         <v>1.8</v>
       </c>
-      <c r="F72" s="3">
+      <c r="F72" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3898,19 +3902,19 @@
       <c r="A73" s="2">
         <v>71</v>
       </c>
-      <c r="B73" s="3">
+      <c r="B73" s="1">
         <v>6.1</v>
       </c>
-      <c r="C73" s="3">
+      <c r="C73" s="1">
         <v>2.8</v>
       </c>
-      <c r="D73" s="3">
+      <c r="D73" s="1">
         <v>4</v>
       </c>
-      <c r="E73" s="3">
+      <c r="E73" s="1">
         <v>1.3</v>
       </c>
-      <c r="F73" s="3">
+      <c r="F73" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3918,19 +3922,19 @@
       <c r="A74" s="2">
         <v>72</v>
       </c>
-      <c r="B74" s="3">
+      <c r="B74" s="1">
         <v>6.3</v>
       </c>
-      <c r="C74" s="3">
+      <c r="C74" s="1">
         <v>2.5</v>
       </c>
-      <c r="D74" s="3">
+      <c r="D74" s="1">
         <v>4.9000000000000004</v>
       </c>
-      <c r="E74" s="3">
+      <c r="E74" s="1">
         <v>1.5</v>
       </c>
-      <c r="F74" s="3">
+      <c r="F74" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3938,19 +3942,19 @@
       <c r="A75" s="2">
         <v>73</v>
       </c>
-      <c r="B75" s="3">
+      <c r="B75" s="1">
         <v>6.1</v>
       </c>
-      <c r="C75" s="3">
+      <c r="C75" s="1">
         <v>2.8</v>
       </c>
-      <c r="D75" s="3">
+      <c r="D75" s="1">
         <v>4.7</v>
       </c>
-      <c r="E75" s="3">
+      <c r="E75" s="1">
         <v>1.2</v>
       </c>
-      <c r="F75" s="3">
+      <c r="F75" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3958,19 +3962,19 @@
       <c r="A76" s="2">
         <v>74</v>
       </c>
-      <c r="B76" s="3">
+      <c r="B76" s="1">
         <v>6.4</v>
       </c>
-      <c r="C76" s="3">
+      <c r="C76" s="1">
         <v>2.9</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="1">
         <v>4.3</v>
       </c>
-      <c r="E76" s="3">
+      <c r="E76" s="1">
         <v>1.3</v>
       </c>
-      <c r="F76" s="3">
+      <c r="F76" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3978,19 +3982,19 @@
       <c r="A77" s="2">
         <v>75</v>
       </c>
-      <c r="B77" s="3">
+      <c r="B77" s="1">
         <v>6.6</v>
       </c>
-      <c r="C77" s="3">
+      <c r="C77" s="1">
         <v>3</v>
       </c>
-      <c r="D77" s="3">
+      <c r="D77" s="1">
         <v>4.4000000000000004</v>
       </c>
-      <c r="E77" s="3">
+      <c r="E77" s="1">
         <v>1.4</v>
       </c>
-      <c r="F77" s="3">
+      <c r="F77" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3998,19 +4002,19 @@
       <c r="A78" s="2">
         <v>76</v>
       </c>
-      <c r="B78" s="3">
+      <c r="B78" s="1">
         <v>6.8</v>
       </c>
-      <c r="C78" s="3">
+      <c r="C78" s="1">
         <v>2.8</v>
       </c>
-      <c r="D78" s="3">
+      <c r="D78" s="1">
         <v>4.8</v>
       </c>
-      <c r="E78" s="3">
+      <c r="E78" s="1">
         <v>1.4</v>
       </c>
-      <c r="F78" s="3">
+      <c r="F78" s="1">
         <v>1</v>
       </c>
     </row>
@@ -4018,19 +4022,19 @@
       <c r="A79" s="2">
         <v>77</v>
       </c>
-      <c r="B79" s="3">
+      <c r="B79" s="1">
         <v>6.7</v>
       </c>
-      <c r="C79" s="3">
+      <c r="C79" s="1">
         <v>3</v>
       </c>
-      <c r="D79" s="3">
+      <c r="D79" s="1">
         <v>5</v>
       </c>
-      <c r="E79" s="3">
+      <c r="E79" s="1">
         <v>1.7</v>
       </c>
-      <c r="F79" s="3">
+      <c r="F79" s="1">
         <v>1</v>
       </c>
     </row>
@@ -4038,19 +4042,19 @@
       <c r="A80" s="2">
         <v>78</v>
       </c>
-      <c r="B80" s="3">
+      <c r="B80" s="1">
         <v>6</v>
       </c>
-      <c r="C80" s="3">
+      <c r="C80" s="1">
         <v>2.9</v>
       </c>
-      <c r="D80" s="3">
+      <c r="D80" s="1">
         <v>4.5</v>
       </c>
-      <c r="E80" s="3">
+      <c r="E80" s="1">
         <v>1.5</v>
       </c>
-      <c r="F80" s="3">
+      <c r="F80" s="1">
         <v>1</v>
       </c>
     </row>
@@ -4058,19 +4062,19 @@
       <c r="A81" s="2">
         <v>79</v>
       </c>
-      <c r="B81" s="3">
+      <c r="B81" s="1">
         <v>5.7</v>
       </c>
-      <c r="C81" s="3">
+      <c r="C81" s="1">
         <v>2.6</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="1">
         <v>3.5</v>
       </c>
-      <c r="E81" s="3">
-        <v>1</v>
-      </c>
-      <c r="F81" s="3">
+      <c r="E81" s="1">
+        <v>1</v>
+      </c>
+      <c r="F81" s="1">
         <v>1</v>
       </c>
     </row>
@@ -4078,19 +4082,19 @@
       <c r="A82" s="2">
         <v>80</v>
       </c>
-      <c r="B82" s="3">
+      <c r="B82" s="1">
         <v>5.5</v>
       </c>
-      <c r="C82" s="3">
+      <c r="C82" s="1">
         <v>2.4</v>
       </c>
-      <c r="D82" s="3">
+      <c r="D82" s="1">
         <v>3.8</v>
       </c>
-      <c r="E82" s="3">
+      <c r="E82" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F82" s="3">
+      <c r="F82" s="1">
         <v>1</v>
       </c>
     </row>
@@ -4098,19 +4102,19 @@
       <c r="A83" s="2">
         <v>81</v>
       </c>
-      <c r="B83" s="3">
+      <c r="B83" s="1">
         <v>5.5</v>
       </c>
-      <c r="C83" s="3">
+      <c r="C83" s="1">
         <v>2.4</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="1">
         <v>3.7</v>
       </c>
-      <c r="E83" s="3">
-        <v>1</v>
-      </c>
-      <c r="F83" s="3">
+      <c r="E83" s="1">
+        <v>1</v>
+      </c>
+      <c r="F83" s="1">
         <v>1</v>
       </c>
     </row>
@@ -4118,19 +4122,19 @@
       <c r="A84" s="2">
         <v>82</v>
       </c>
-      <c r="B84" s="3">
+      <c r="B84" s="1">
         <v>5.8</v>
       </c>
-      <c r="C84" s="3">
+      <c r="C84" s="1">
         <v>2.7</v>
       </c>
-      <c r="D84" s="3">
+      <c r="D84" s="1">
         <v>3.9</v>
       </c>
-      <c r="E84" s="3">
+      <c r="E84" s="1">
         <v>1.2</v>
       </c>
-      <c r="F84" s="3">
+      <c r="F84" s="1">
         <v>1</v>
       </c>
     </row>
@@ -4138,19 +4142,19 @@
       <c r="A85" s="2">
         <v>83</v>
       </c>
-      <c r="B85" s="3">
+      <c r="B85" s="1">
         <v>6</v>
       </c>
-      <c r="C85" s="3">
+      <c r="C85" s="1">
         <v>2.7</v>
       </c>
-      <c r="D85" s="3">
+      <c r="D85" s="1">
         <v>5.0999999999999996</v>
       </c>
-      <c r="E85" s="3">
+      <c r="E85" s="1">
         <v>1.6</v>
       </c>
-      <c r="F85" s="3">
+      <c r="F85" s="1">
         <v>1</v>
       </c>
     </row>
@@ -4158,19 +4162,19 @@
       <c r="A86" s="2">
         <v>84</v>
       </c>
-      <c r="B86" s="3">
+      <c r="B86" s="1">
         <v>5.4</v>
       </c>
-      <c r="C86" s="3">
+      <c r="C86" s="1">
         <v>3</v>
       </c>
-      <c r="D86" s="3">
+      <c r="D86" s="1">
         <v>4.5</v>
       </c>
-      <c r="E86" s="3">
+      <c r="E86" s="1">
         <v>1.5</v>
       </c>
-      <c r="F86" s="3">
+      <c r="F86" s="1">
         <v>1</v>
       </c>
     </row>
@@ -4178,19 +4182,19 @@
       <c r="A87" s="2">
         <v>85</v>
       </c>
-      <c r="B87" s="3">
+      <c r="B87" s="1">
         <v>6</v>
       </c>
-      <c r="C87" s="3">
+      <c r="C87" s="1">
         <v>3.4</v>
       </c>
-      <c r="D87" s="3">
+      <c r="D87" s="1">
         <v>4.5</v>
       </c>
-      <c r="E87" s="3">
+      <c r="E87" s="1">
         <v>1.6</v>
       </c>
-      <c r="F87" s="3">
+      <c r="F87" s="1">
         <v>1</v>
       </c>
     </row>
@@ -4198,19 +4202,19 @@
       <c r="A88" s="2">
         <v>86</v>
       </c>
-      <c r="B88" s="3">
+      <c r="B88" s="1">
         <v>6.7</v>
       </c>
-      <c r="C88" s="3">
+      <c r="C88" s="1">
         <v>3.1</v>
       </c>
-      <c r="D88" s="3">
+      <c r="D88" s="1">
         <v>4.7</v>
       </c>
-      <c r="E88" s="3">
+      <c r="E88" s="1">
         <v>1.5</v>
       </c>
-      <c r="F88" s="3">
+      <c r="F88" s="1">
         <v>1</v>
       </c>
     </row>
@@ -4218,19 +4222,19 @@
       <c r="A89" s="2">
         <v>87</v>
       </c>
-      <c r="B89" s="3">
+      <c r="B89" s="1">
         <v>6.3</v>
       </c>
-      <c r="C89" s="3">
+      <c r="C89" s="1">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89" s="1">
         <v>4.4000000000000004</v>
       </c>
-      <c r="E89" s="3">
+      <c r="E89" s="1">
         <v>1.3</v>
       </c>
-      <c r="F89" s="3">
+      <c r="F89" s="1">
         <v>1</v>
       </c>
     </row>
@@ -4238,19 +4242,19 @@
       <c r="A90" s="2">
         <v>88</v>
       </c>
-      <c r="B90" s="3">
+      <c r="B90" s="1">
         <v>5.6</v>
       </c>
-      <c r="C90" s="3">
+      <c r="C90" s="1">
         <v>3</v>
       </c>
-      <c r="D90" s="3">
+      <c r="D90" s="1">
         <v>4.0999999999999996</v>
       </c>
-      <c r="E90" s="3">
+      <c r="E90" s="1">
         <v>1.3</v>
       </c>
-      <c r="F90" s="3">
+      <c r="F90" s="1">
         <v>1</v>
       </c>
     </row>
@@ -4258,19 +4262,19 @@
       <c r="A91" s="2">
         <v>89</v>
       </c>
-      <c r="B91" s="3">
+      <c r="B91" s="1">
         <v>5.5</v>
       </c>
-      <c r="C91" s="3">
+      <c r="C91" s="1">
         <v>2.5</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="1">
         <v>4</v>
       </c>
-      <c r="E91" s="3">
+      <c r="E91" s="1">
         <v>1.3</v>
       </c>
-      <c r="F91" s="3">
+      <c r="F91" s="1">
         <v>1</v>
       </c>
     </row>
@@ -4278,19 +4282,19 @@
       <c r="A92" s="2">
         <v>90</v>
       </c>
-      <c r="B92" s="3">
+      <c r="B92" s="1">
         <v>5.5</v>
       </c>
-      <c r="C92" s="3">
+      <c r="C92" s="1">
         <v>2.6</v>
       </c>
-      <c r="D92" s="3">
+      <c r="D92" s="1">
         <v>4.4000000000000004</v>
       </c>
-      <c r="E92" s="3">
+      <c r="E92" s="1">
         <v>1.2</v>
       </c>
-      <c r="F92" s="3">
+      <c r="F92" s="1">
         <v>1</v>
       </c>
     </row>
@@ -4298,19 +4302,19 @@
       <c r="A93" s="2">
         <v>91</v>
       </c>
-      <c r="B93" s="3">
+      <c r="B93" s="1">
         <v>6.1</v>
       </c>
-      <c r="C93" s="3">
+      <c r="C93" s="1">
         <v>3</v>
       </c>
-      <c r="D93" s="3">
+      <c r="D93" s="1">
         <v>4.5999999999999996</v>
       </c>
-      <c r="E93" s="3">
+      <c r="E93" s="1">
         <v>1.4</v>
       </c>
-      <c r="F93" s="3">
+      <c r="F93" s="1">
         <v>1</v>
       </c>
     </row>
@@ -4318,19 +4322,19 @@
       <c r="A94" s="2">
         <v>92</v>
       </c>
-      <c r="B94" s="3">
+      <c r="B94" s="1">
         <v>5.8</v>
       </c>
-      <c r="C94" s="3">
+      <c r="C94" s="1">
         <v>2.6</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94" s="1">
         <v>4</v>
       </c>
-      <c r="E94" s="3">
+      <c r="E94" s="1">
         <v>1.2</v>
       </c>
-      <c r="F94" s="3">
+      <c r="F94" s="1">
         <v>1</v>
       </c>
     </row>
@@ -4338,19 +4342,19 @@
       <c r="A95" s="2">
         <v>93</v>
       </c>
-      <c r="B95" s="3">
+      <c r="B95" s="1">
         <v>5</v>
       </c>
-      <c r="C95" s="3">
+      <c r="C95" s="1">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D95" s="3">
+      <c r="D95" s="1">
         <v>3.3</v>
       </c>
-      <c r="E95" s="3">
-        <v>1</v>
-      </c>
-      <c r="F95" s="3">
+      <c r="E95" s="1">
+        <v>1</v>
+      </c>
+      <c r="F95" s="1">
         <v>1</v>
       </c>
     </row>
@@ -4358,19 +4362,19 @@
       <c r="A96" s="2">
         <v>94</v>
       </c>
-      <c r="B96" s="3">
+      <c r="B96" s="1">
         <v>5.6</v>
       </c>
-      <c r="C96" s="3">
+      <c r="C96" s="1">
         <v>2.7</v>
       </c>
-      <c r="D96" s="3">
+      <c r="D96" s="1">
         <v>4.2</v>
       </c>
-      <c r="E96" s="3">
+      <c r="E96" s="1">
         <v>1.3</v>
       </c>
-      <c r="F96" s="3">
+      <c r="F96" s="1">
         <v>1</v>
       </c>
     </row>
@@ -4378,19 +4382,19 @@
       <c r="A97" s="2">
         <v>95</v>
       </c>
-      <c r="B97" s="3">
+      <c r="B97" s="1">
         <v>5.7</v>
       </c>
-      <c r="C97" s="3">
+      <c r="C97" s="1">
         <v>3</v>
       </c>
-      <c r="D97" s="3">
+      <c r="D97" s="1">
         <v>4.2</v>
       </c>
-      <c r="E97" s="3">
+      <c r="E97" s="1">
         <v>1.2</v>
       </c>
-      <c r="F97" s="3">
+      <c r="F97" s="1">
         <v>1</v>
       </c>
     </row>
@@ -4398,19 +4402,19 @@
       <c r="A98" s="2">
         <v>96</v>
       </c>
-      <c r="B98" s="3">
+      <c r="B98" s="1">
         <v>5.7</v>
       </c>
-      <c r="C98" s="3">
+      <c r="C98" s="1">
         <v>2.9</v>
       </c>
-      <c r="D98" s="3">
+      <c r="D98" s="1">
         <v>4.2</v>
       </c>
-      <c r="E98" s="3">
+      <c r="E98" s="1">
         <v>1.3</v>
       </c>
-      <c r="F98" s="3">
+      <c r="F98" s="1">
         <v>1</v>
       </c>
     </row>
@@ -4418,19 +4422,19 @@
       <c r="A99" s="2">
         <v>97</v>
       </c>
-      <c r="B99" s="3">
+      <c r="B99" s="1">
         <v>6.2</v>
       </c>
-      <c r="C99" s="3">
+      <c r="C99" s="1">
         <v>2.9</v>
       </c>
-      <c r="D99" s="3">
+      <c r="D99" s="1">
         <v>4.3</v>
       </c>
-      <c r="E99" s="3">
+      <c r="E99" s="1">
         <v>1.3</v>
       </c>
-      <c r="F99" s="3">
+      <c r="F99" s="1">
         <v>1</v>
       </c>
     </row>
@@ -4438,19 +4442,19 @@
       <c r="A100" s="2">
         <v>98</v>
       </c>
-      <c r="B100" s="3">
+      <c r="B100" s="1">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C100" s="3">
+      <c r="C100" s="1">
         <v>2.5</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100" s="1">
         <v>3</v>
       </c>
-      <c r="E100" s="3">
+      <c r="E100" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F100" s="3">
+      <c r="F100" s="1">
         <v>1</v>
       </c>
     </row>
@@ -4458,19 +4462,19 @@
       <c r="A101" s="2">
         <v>99</v>
       </c>
-      <c r="B101" s="3">
+      <c r="B101" s="1">
         <v>5.7</v>
       </c>
-      <c r="C101" s="3">
+      <c r="C101" s="1">
         <v>2.8</v>
       </c>
-      <c r="D101" s="3">
+      <c r="D101" s="1">
         <v>4.0999999999999996</v>
       </c>
-      <c r="E101" s="3">
+      <c r="E101" s="1">
         <v>1.3</v>
       </c>
-      <c r="F101" s="3">
+      <c r="F101" s="1">
         <v>1</v>
       </c>
     </row>
@@ -4478,19 +4482,19 @@
       <c r="A102" s="2">
         <v>100</v>
       </c>
-      <c r="B102" s="3">
+      <c r="B102" s="1">
         <v>6.3</v>
       </c>
-      <c r="C102" s="3">
+      <c r="C102" s="1">
         <v>3.3</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="1">
         <v>6</v>
       </c>
-      <c r="E102" s="3">
+      <c r="E102" s="1">
         <v>2.5</v>
       </c>
-      <c r="F102" s="3">
+      <c r="F102" s="1">
         <v>2</v>
       </c>
     </row>
@@ -4498,19 +4502,19 @@
       <c r="A103" s="2">
         <v>101</v>
       </c>
-      <c r="B103" s="3">
+      <c r="B103" s="1">
         <v>5.8</v>
       </c>
-      <c r="C103" s="3">
+      <c r="C103" s="1">
         <v>2.7</v>
       </c>
-      <c r="D103" s="3">
+      <c r="D103" s="1">
         <v>5.0999999999999996</v>
       </c>
-      <c r="E103" s="3">
+      <c r="E103" s="1">
         <v>1.9</v>
       </c>
-      <c r="F103" s="3">
+      <c r="F103" s="1">
         <v>2</v>
       </c>
     </row>
@@ -4518,19 +4522,19 @@
       <c r="A104" s="2">
         <v>102</v>
       </c>
-      <c r="B104" s="3">
+      <c r="B104" s="1">
         <v>7.1</v>
       </c>
-      <c r="C104" s="3">
+      <c r="C104" s="1">
         <v>3</v>
       </c>
-      <c r="D104" s="3">
+      <c r="D104" s="1">
         <v>5.9</v>
       </c>
-      <c r="E104" s="3">
+      <c r="E104" s="1">
         <v>2.1</v>
       </c>
-      <c r="F104" s="3">
+      <c r="F104" s="1">
         <v>2</v>
       </c>
     </row>
@@ -4538,19 +4542,19 @@
       <c r="A105" s="2">
         <v>103</v>
       </c>
-      <c r="B105" s="3">
+      <c r="B105" s="1">
         <v>6.3</v>
       </c>
-      <c r="C105" s="3">
+      <c r="C105" s="1">
         <v>2.9</v>
       </c>
-      <c r="D105" s="3">
+      <c r="D105" s="1">
         <v>5.6</v>
       </c>
-      <c r="E105" s="3">
+      <c r="E105" s="1">
         <v>1.8</v>
       </c>
-      <c r="F105" s="3">
+      <c r="F105" s="1">
         <v>2</v>
       </c>
     </row>
@@ -4558,19 +4562,19 @@
       <c r="A106" s="2">
         <v>104</v>
       </c>
-      <c r="B106" s="3">
+      <c r="B106" s="1">
         <v>6.5</v>
       </c>
-      <c r="C106" s="3">
+      <c r="C106" s="1">
         <v>3</v>
       </c>
-      <c r="D106" s="3">
+      <c r="D106" s="1">
         <v>5.8</v>
       </c>
-      <c r="E106" s="3">
+      <c r="E106" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F106" s="3">
+      <c r="F106" s="1">
         <v>2</v>
       </c>
     </row>
@@ -4578,19 +4582,19 @@
       <c r="A107" s="2">
         <v>105</v>
       </c>
-      <c r="B107" s="3">
+      <c r="B107" s="1">
         <v>7.6</v>
       </c>
-      <c r="C107" s="3">
+      <c r="C107" s="1">
         <v>3</v>
       </c>
-      <c r="D107" s="3">
+      <c r="D107" s="1">
         <v>6.6</v>
       </c>
-      <c r="E107" s="3">
+      <c r="E107" s="1">
         <v>2.1</v>
       </c>
-      <c r="F107" s="3">
+      <c r="F107" s="1">
         <v>2</v>
       </c>
     </row>
@@ -4598,19 +4602,19 @@
       <c r="A108" s="2">
         <v>106</v>
       </c>
-      <c r="B108" s="3">
+      <c r="B108" s="1">
         <v>4.9000000000000004</v>
       </c>
-      <c r="C108" s="3">
+      <c r="C108" s="1">
         <v>2.5</v>
       </c>
-      <c r="D108" s="3">
+      <c r="D108" s="1">
         <v>4.5</v>
       </c>
-      <c r="E108" s="3">
+      <c r="E108" s="1">
         <v>1.7</v>
       </c>
-      <c r="F108" s="3">
+      <c r="F108" s="1">
         <v>2</v>
       </c>
     </row>
@@ -4618,19 +4622,19 @@
       <c r="A109" s="2">
         <v>107</v>
       </c>
-      <c r="B109" s="3">
+      <c r="B109" s="1">
         <v>7.3</v>
       </c>
-      <c r="C109" s="3">
+      <c r="C109" s="1">
         <v>2.9</v>
       </c>
-      <c r="D109" s="3">
+      <c r="D109" s="1">
         <v>6.3</v>
       </c>
-      <c r="E109" s="3">
+      <c r="E109" s="1">
         <v>1.8</v>
       </c>
-      <c r="F109" s="3">
+      <c r="F109" s="1">
         <v>2</v>
       </c>
     </row>
@@ -4638,19 +4642,19 @@
       <c r="A110" s="2">
         <v>108</v>
       </c>
-      <c r="B110" s="3">
+      <c r="B110" s="1">
         <v>6.7</v>
       </c>
-      <c r="C110" s="3">
+      <c r="C110" s="1">
         <v>2.5</v>
       </c>
-      <c r="D110" s="3">
+      <c r="D110" s="1">
         <v>5.8</v>
       </c>
-      <c r="E110" s="3">
+      <c r="E110" s="1">
         <v>1.8</v>
       </c>
-      <c r="F110" s="3">
+      <c r="F110" s="1">
         <v>2</v>
       </c>
     </row>
@@ -4658,19 +4662,19 @@
       <c r="A111" s="2">
         <v>109</v>
       </c>
-      <c r="B111" s="3">
+      <c r="B111" s="1">
         <v>7.2</v>
       </c>
-      <c r="C111" s="3">
+      <c r="C111" s="1">
         <v>3.6</v>
       </c>
-      <c r="D111" s="3">
+      <c r="D111" s="1">
         <v>6.1</v>
       </c>
-      <c r="E111" s="3">
+      <c r="E111" s="1">
         <v>2.5</v>
       </c>
-      <c r="F111" s="3">
+      <c r="F111" s="1">
         <v>2</v>
       </c>
     </row>
@@ -4678,19 +4682,19 @@
       <c r="A112" s="2">
         <v>110</v>
       </c>
-      <c r="B112" s="3">
+      <c r="B112" s="1">
         <v>6.5</v>
       </c>
-      <c r="C112" s="3">
+      <c r="C112" s="1">
         <v>3.2</v>
       </c>
-      <c r="D112" s="3">
+      <c r="D112" s="1">
         <v>5.0999999999999996</v>
       </c>
-      <c r="E112" s="3">
-        <v>2</v>
-      </c>
-      <c r="F112" s="3">
+      <c r="E112" s="1">
+        <v>2</v>
+      </c>
+      <c r="F112" s="1">
         <v>2</v>
       </c>
     </row>
@@ -4698,19 +4702,19 @@
       <c r="A113" s="2">
         <v>111</v>
       </c>
-      <c r="B113" s="3">
+      <c r="B113" s="1">
         <v>6.4</v>
       </c>
-      <c r="C113" s="3">
+      <c r="C113" s="1">
         <v>2.7</v>
       </c>
-      <c r="D113" s="3">
+      <c r="D113" s="1">
         <v>5.3</v>
       </c>
-      <c r="E113" s="3">
+      <c r="E113" s="1">
         <v>1.9</v>
       </c>
-      <c r="F113" s="3">
+      <c r="F113" s="1">
         <v>2</v>
       </c>
     </row>
@@ -4718,19 +4722,19 @@
       <c r="A114" s="2">
         <v>112</v>
       </c>
-      <c r="B114" s="3">
+      <c r="B114" s="1">
         <v>6.8</v>
       </c>
-      <c r="C114" s="3">
+      <c r="C114" s="1">
         <v>3</v>
       </c>
-      <c r="D114" s="3">
+      <c r="D114" s="1">
         <v>5.5</v>
       </c>
-      <c r="E114" s="3">
+      <c r="E114" s="1">
         <v>2.1</v>
       </c>
-      <c r="F114" s="3">
+      <c r="F114" s="1">
         <v>2</v>
       </c>
     </row>
@@ -4738,19 +4742,19 @@
       <c r="A115" s="2">
         <v>113</v>
       </c>
-      <c r="B115" s="3">
+      <c r="B115" s="1">
         <v>5.7</v>
       </c>
-      <c r="C115" s="3">
+      <c r="C115" s="1">
         <v>2.5</v>
       </c>
-      <c r="D115" s="3">
+      <c r="D115" s="1">
         <v>5</v>
       </c>
-      <c r="E115" s="3">
-        <v>2</v>
-      </c>
-      <c r="F115" s="3">
+      <c r="E115" s="1">
+        <v>2</v>
+      </c>
+      <c r="F115" s="1">
         <v>2</v>
       </c>
     </row>
@@ -4758,19 +4762,19 @@
       <c r="A116" s="2">
         <v>114</v>
       </c>
-      <c r="B116" s="3">
+      <c r="B116" s="1">
         <v>5.8</v>
       </c>
-      <c r="C116" s="3">
+      <c r="C116" s="1">
         <v>2.8</v>
       </c>
-      <c r="D116" s="3">
+      <c r="D116" s="1">
         <v>5.0999999999999996</v>
       </c>
-      <c r="E116" s="3">
+      <c r="E116" s="1">
         <v>2.4</v>
       </c>
-      <c r="F116" s="3">
+      <c r="F116" s="1">
         <v>2</v>
       </c>
     </row>
@@ -4778,19 +4782,19 @@
       <c r="A117" s="2">
         <v>115</v>
       </c>
-      <c r="B117" s="3">
+      <c r="B117" s="1">
         <v>6.4</v>
       </c>
-      <c r="C117" s="3">
+      <c r="C117" s="1">
         <v>3.2</v>
       </c>
-      <c r="D117" s="3">
+      <c r="D117" s="1">
         <v>5.3</v>
       </c>
-      <c r="E117" s="3">
+      <c r="E117" s="1">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F117" s="3">
+      <c r="F117" s="1">
         <v>2</v>
       </c>
     </row>
@@ -4798,19 +4802,19 @@
       <c r="A118" s="2">
         <v>116</v>
       </c>
-      <c r="B118" s="3">
+      <c r="B118" s="1">
         <v>6.5</v>
       </c>
-      <c r="C118" s="3">
+      <c r="C118" s="1">
         <v>3</v>
       </c>
-      <c r="D118" s="3">
+      <c r="D118" s="1">
         <v>5.5</v>
       </c>
-      <c r="E118" s="3">
+      <c r="E118" s="1">
         <v>1.8</v>
       </c>
-      <c r="F118" s="3">
+      <c r="F118" s="1">
         <v>2</v>
       </c>
     </row>
@@ -4818,19 +4822,19 @@
       <c r="A119" s="2">
         <v>117</v>
       </c>
-      <c r="B119" s="3">
+      <c r="B119" s="1">
         <v>7.7</v>
       </c>
-      <c r="C119" s="3">
+      <c r="C119" s="1">
         <v>3.8</v>
       </c>
-      <c r="D119" s="3">
+      <c r="D119" s="1">
         <v>6.7</v>
       </c>
-      <c r="E119" s="3">
+      <c r="E119" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F119" s="3">
+      <c r="F119" s="1">
         <v>2</v>
       </c>
     </row>
@@ -4838,19 +4842,19 @@
       <c r="A120" s="2">
         <v>118</v>
       </c>
-      <c r="B120" s="3">
+      <c r="B120" s="1">
         <v>7.7</v>
       </c>
-      <c r="C120" s="3">
+      <c r="C120" s="1">
         <v>2.6</v>
       </c>
-      <c r="D120" s="3">
+      <c r="D120" s="1">
         <v>6.9</v>
       </c>
-      <c r="E120" s="3">
+      <c r="E120" s="1">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F120" s="3">
+      <c r="F120" s="1">
         <v>2</v>
       </c>
     </row>
@@ -4858,19 +4862,19 @@
       <c r="A121" s="2">
         <v>119</v>
       </c>
-      <c r="B121" s="3">
+      <c r="B121" s="1">
         <v>6</v>
       </c>
-      <c r="C121" s="3">
+      <c r="C121" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D121" s="3">
+      <c r="D121" s="1">
         <v>5</v>
       </c>
-      <c r="E121" s="3">
+      <c r="E121" s="1">
         <v>1.5</v>
       </c>
-      <c r="F121" s="3">
+      <c r="F121" s="1">
         <v>2</v>
       </c>
     </row>
@@ -4878,19 +4882,19 @@
       <c r="A122" s="2">
         <v>120</v>
       </c>
-      <c r="B122" s="3">
+      <c r="B122" s="1">
         <v>6.9</v>
       </c>
-      <c r="C122" s="3">
+      <c r="C122" s="1">
         <v>3.2</v>
       </c>
-      <c r="D122" s="3">
+      <c r="D122" s="1">
         <v>5.7</v>
       </c>
-      <c r="E122" s="3">
+      <c r="E122" s="1">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F122" s="3">
+      <c r="F122" s="1">
         <v>2</v>
       </c>
     </row>
@@ -4898,19 +4902,19 @@
       <c r="A123" s="2">
         <v>121</v>
       </c>
-      <c r="B123" s="3">
+      <c r="B123" s="1">
         <v>5.6</v>
       </c>
-      <c r="C123" s="3">
+      <c r="C123" s="1">
         <v>2.8</v>
       </c>
-      <c r="D123" s="3">
+      <c r="D123" s="1">
         <v>4.9000000000000004</v>
       </c>
-      <c r="E123" s="3">
-        <v>2</v>
-      </c>
-      <c r="F123" s="3">
+      <c r="E123" s="1">
+        <v>2</v>
+      </c>
+      <c r="F123" s="1">
         <v>2</v>
       </c>
     </row>
@@ -4918,19 +4922,19 @@
       <c r="A124" s="2">
         <v>122</v>
       </c>
-      <c r="B124" s="3">
+      <c r="B124" s="1">
         <v>7.7</v>
       </c>
-      <c r="C124" s="3">
+      <c r="C124" s="1">
         <v>2.8</v>
       </c>
-      <c r="D124" s="3">
+      <c r="D124" s="1">
         <v>6.7</v>
       </c>
-      <c r="E124" s="3">
-        <v>2</v>
-      </c>
-      <c r="F124" s="3">
+      <c r="E124" s="1">
+        <v>2</v>
+      </c>
+      <c r="F124" s="1">
         <v>2</v>
       </c>
     </row>
@@ -4938,19 +4942,19 @@
       <c r="A125" s="2">
         <v>123</v>
       </c>
-      <c r="B125" s="3">
+      <c r="B125" s="1">
         <v>6.3</v>
       </c>
-      <c r="C125" s="3">
+      <c r="C125" s="1">
         <v>2.7</v>
       </c>
-      <c r="D125" s="3">
+      <c r="D125" s="1">
         <v>4.9000000000000004</v>
       </c>
-      <c r="E125" s="3">
+      <c r="E125" s="1">
         <v>1.8</v>
       </c>
-      <c r="F125" s="3">
+      <c r="F125" s="1">
         <v>2</v>
       </c>
     </row>
@@ -4958,19 +4962,19 @@
       <c r="A126" s="2">
         <v>124</v>
       </c>
-      <c r="B126" s="3">
+      <c r="B126" s="1">
         <v>6.7</v>
       </c>
-      <c r="C126" s="3">
+      <c r="C126" s="1">
         <v>3.3</v>
       </c>
-      <c r="D126" s="3">
+      <c r="D126" s="1">
         <v>5.7</v>
       </c>
-      <c r="E126" s="3">
+      <c r="E126" s="1">
         <v>2.1</v>
       </c>
-      <c r="F126" s="3">
+      <c r="F126" s="1">
         <v>2</v>
       </c>
     </row>
@@ -4978,19 +4982,19 @@
       <c r="A127" s="2">
         <v>125</v>
       </c>
-      <c r="B127" s="3">
+      <c r="B127" s="1">
         <v>7.2</v>
       </c>
-      <c r="C127" s="3">
+      <c r="C127" s="1">
         <v>3.2</v>
       </c>
-      <c r="D127" s="3">
+      <c r="D127" s="1">
         <v>6</v>
       </c>
-      <c r="E127" s="3">
+      <c r="E127" s="1">
         <v>1.8</v>
       </c>
-      <c r="F127" s="3">
+      <c r="F127" s="1">
         <v>2</v>
       </c>
     </row>
@@ -4998,19 +5002,19 @@
       <c r="A128" s="2">
         <v>126</v>
       </c>
-      <c r="B128" s="3">
+      <c r="B128" s="1">
         <v>6.2</v>
       </c>
-      <c r="C128" s="3">
+      <c r="C128" s="1">
         <v>2.8</v>
       </c>
-      <c r="D128" s="3">
+      <c r="D128" s="1">
         <v>4.8</v>
       </c>
-      <c r="E128" s="3">
+      <c r="E128" s="1">
         <v>1.8</v>
       </c>
-      <c r="F128" s="3">
+      <c r="F128" s="1">
         <v>2</v>
       </c>
     </row>
@@ -5018,19 +5022,19 @@
       <c r="A129" s="2">
         <v>127</v>
       </c>
-      <c r="B129" s="3">
+      <c r="B129" s="1">
         <v>6.1</v>
       </c>
-      <c r="C129" s="3">
+      <c r="C129" s="1">
         <v>3</v>
       </c>
-      <c r="D129" s="3">
+      <c r="D129" s="1">
         <v>4.9000000000000004</v>
       </c>
-      <c r="E129" s="3">
+      <c r="E129" s="1">
         <v>1.8</v>
       </c>
-      <c r="F129" s="3">
+      <c r="F129" s="1">
         <v>2</v>
       </c>
     </row>
@@ -5038,19 +5042,19 @@
       <c r="A130" s="2">
         <v>128</v>
       </c>
-      <c r="B130" s="3">
+      <c r="B130" s="1">
         <v>6.4</v>
       </c>
-      <c r="C130" s="3">
+      <c r="C130" s="1">
         <v>2.8</v>
       </c>
-      <c r="D130" s="3">
+      <c r="D130" s="1">
         <v>5.6</v>
       </c>
-      <c r="E130" s="3">
+      <c r="E130" s="1">
         <v>2.1</v>
       </c>
-      <c r="F130" s="3">
+      <c r="F130" s="1">
         <v>2</v>
       </c>
     </row>
@@ -5058,19 +5062,19 @@
       <c r="A131" s="2">
         <v>129</v>
       </c>
-      <c r="B131" s="3">
+      <c r="B131" s="1">
         <v>7.2</v>
       </c>
-      <c r="C131" s="3">
+      <c r="C131" s="1">
         <v>3</v>
       </c>
-      <c r="D131" s="3">
+      <c r="D131" s="1">
         <v>5.8</v>
       </c>
-      <c r="E131" s="3">
+      <c r="E131" s="1">
         <v>1.6</v>
       </c>
-      <c r="F131" s="3">
+      <c r="F131" s="1">
         <v>2</v>
       </c>
     </row>
@@ -5078,19 +5082,19 @@
       <c r="A132" s="2">
         <v>130</v>
       </c>
-      <c r="B132" s="3">
+      <c r="B132" s="1">
         <v>7.4</v>
       </c>
-      <c r="C132" s="3">
+      <c r="C132" s="1">
         <v>2.8</v>
       </c>
-      <c r="D132" s="3">
+      <c r="D132" s="1">
         <v>6.1</v>
       </c>
-      <c r="E132" s="3">
+      <c r="E132" s="1">
         <v>1.9</v>
       </c>
-      <c r="F132" s="3">
+      <c r="F132" s="1">
         <v>2</v>
       </c>
     </row>
@@ -5098,19 +5102,19 @@
       <c r="A133" s="2">
         <v>131</v>
       </c>
-      <c r="B133" s="3">
+      <c r="B133" s="1">
         <v>7.9</v>
       </c>
-      <c r="C133" s="3">
+      <c r="C133" s="1">
         <v>3.8</v>
       </c>
-      <c r="D133" s="3">
+      <c r="D133" s="1">
         <v>6.4</v>
       </c>
-      <c r="E133" s="3">
-        <v>2</v>
-      </c>
-      <c r="F133" s="3">
+      <c r="E133" s="1">
+        <v>2</v>
+      </c>
+      <c r="F133" s="1">
         <v>2</v>
       </c>
     </row>
@@ -5118,19 +5122,19 @@
       <c r="A134" s="2">
         <v>132</v>
       </c>
-      <c r="B134" s="3">
+      <c r="B134" s="1">
         <v>6.4</v>
       </c>
-      <c r="C134" s="3">
+      <c r="C134" s="1">
         <v>2.8</v>
       </c>
-      <c r="D134" s="3">
+      <c r="D134" s="1">
         <v>5.6</v>
       </c>
-      <c r="E134" s="3">
+      <c r="E134" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F134" s="3">
+      <c r="F134" s="1">
         <v>2</v>
       </c>
     </row>
@@ -5138,19 +5142,19 @@
       <c r="A135" s="2">
         <v>133</v>
       </c>
-      <c r="B135" s="3">
+      <c r="B135" s="1">
         <v>6.3</v>
       </c>
-      <c r="C135" s="3">
+      <c r="C135" s="1">
         <v>2.8</v>
       </c>
-      <c r="D135" s="3">
+      <c r="D135" s="1">
         <v>5.0999999999999996</v>
       </c>
-      <c r="E135" s="3">
+      <c r="E135" s="1">
         <v>1.5</v>
       </c>
-      <c r="F135" s="3">
+      <c r="F135" s="1">
         <v>2</v>
       </c>
     </row>
@@ -5158,19 +5162,19 @@
       <c r="A136" s="2">
         <v>134</v>
       </c>
-      <c r="B136" s="3">
+      <c r="B136" s="1">
         <v>6.1</v>
       </c>
-      <c r="C136" s="3">
+      <c r="C136" s="1">
         <v>2.6</v>
       </c>
-      <c r="D136" s="3">
+      <c r="D136" s="1">
         <v>5.6</v>
       </c>
-      <c r="E136" s="3">
+      <c r="E136" s="1">
         <v>1.4</v>
       </c>
-      <c r="F136" s="3">
+      <c r="F136" s="1">
         <v>2</v>
       </c>
     </row>
@@ -5178,19 +5182,19 @@
       <c r="A137" s="2">
         <v>135</v>
       </c>
-      <c r="B137" s="3">
+      <c r="B137" s="1">
         <v>7.7</v>
       </c>
-      <c r="C137" s="3">
+      <c r="C137" s="1">
         <v>3</v>
       </c>
-      <c r="D137" s="3">
+      <c r="D137" s="1">
         <v>6.1</v>
       </c>
-      <c r="E137" s="3">
+      <c r="E137" s="1">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F137" s="3">
+      <c r="F137" s="1">
         <v>2</v>
       </c>
     </row>
@@ -5198,19 +5202,19 @@
       <c r="A138" s="2">
         <v>136</v>
       </c>
-      <c r="B138" s="3">
+      <c r="B138" s="1">
         <v>6.3</v>
       </c>
-      <c r="C138" s="3">
+      <c r="C138" s="1">
         <v>3.4</v>
       </c>
-      <c r="D138" s="3">
+      <c r="D138" s="1">
         <v>5.6</v>
       </c>
-      <c r="E138" s="3">
+      <c r="E138" s="1">
         <v>2.4</v>
       </c>
-      <c r="F138" s="3">
+      <c r="F138" s="1">
         <v>2</v>
       </c>
     </row>
@@ -5218,19 +5222,19 @@
       <c r="A139" s="2">
         <v>137</v>
       </c>
-      <c r="B139" s="3">
+      <c r="B139" s="1">
         <v>6.4</v>
       </c>
-      <c r="C139" s="3">
+      <c r="C139" s="1">
         <v>3.1</v>
       </c>
-      <c r="D139" s="3">
+      <c r="D139" s="1">
         <v>5.5</v>
       </c>
-      <c r="E139" s="3">
+      <c r="E139" s="1">
         <v>1.8</v>
       </c>
-      <c r="F139" s="3">
+      <c r="F139" s="1">
         <v>2</v>
       </c>
     </row>
@@ -5238,19 +5242,19 @@
       <c r="A140" s="2">
         <v>138</v>
       </c>
-      <c r="B140" s="3">
+      <c r="B140" s="1">
         <v>6</v>
       </c>
-      <c r="C140" s="3">
+      <c r="C140" s="1">
         <v>3</v>
       </c>
-      <c r="D140" s="3">
+      <c r="D140" s="1">
         <v>4.8</v>
       </c>
-      <c r="E140" s="3">
+      <c r="E140" s="1">
         <v>1.8</v>
       </c>
-      <c r="F140" s="3">
+      <c r="F140" s="1">
         <v>2</v>
       </c>
     </row>
@@ -5258,19 +5262,19 @@
       <c r="A141" s="2">
         <v>139</v>
       </c>
-      <c r="B141" s="3">
+      <c r="B141" s="1">
         <v>6.9</v>
       </c>
-      <c r="C141" s="3">
+      <c r="C141" s="1">
         <v>3.1</v>
       </c>
-      <c r="D141" s="3">
+      <c r="D141" s="1">
         <v>5.4</v>
       </c>
-      <c r="E141" s="3">
+      <c r="E141" s="1">
         <v>2.1</v>
       </c>
-      <c r="F141" s="3">
+      <c r="F141" s="1">
         <v>2</v>
       </c>
     </row>
@@ -5278,19 +5282,19 @@
       <c r="A142" s="2">
         <v>140</v>
       </c>
-      <c r="B142" s="3">
+      <c r="B142" s="1">
         <v>6.7</v>
       </c>
-      <c r="C142" s="3">
+      <c r="C142" s="1">
         <v>3.1</v>
       </c>
-      <c r="D142" s="3">
+      <c r="D142" s="1">
         <v>5.6</v>
       </c>
-      <c r="E142" s="3">
+      <c r="E142" s="1">
         <v>2.4</v>
       </c>
-      <c r="F142" s="3">
+      <c r="F142" s="1">
         <v>2</v>
       </c>
     </row>
@@ -5298,19 +5302,19 @@
       <c r="A143" s="2">
         <v>141</v>
       </c>
-      <c r="B143" s="3">
+      <c r="B143" s="1">
         <v>6.9</v>
       </c>
-      <c r="C143" s="3">
+      <c r="C143" s="1">
         <v>3.1</v>
       </c>
-      <c r="D143" s="3">
+      <c r="D143" s="1">
         <v>5.0999999999999996</v>
       </c>
-      <c r="E143" s="3">
+      <c r="E143" s="1">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F143" s="3">
+      <c r="F143" s="1">
         <v>2</v>
       </c>
     </row>
@@ -5318,19 +5322,19 @@
       <c r="A144" s="2">
         <v>142</v>
       </c>
-      <c r="B144" s="3">
+      <c r="B144" s="1">
         <v>5.8</v>
       </c>
-      <c r="C144" s="3">
+      <c r="C144" s="1">
         <v>2.7</v>
       </c>
-      <c r="D144" s="3">
+      <c r="D144" s="1">
         <v>5.0999999999999996</v>
       </c>
-      <c r="E144" s="3">
+      <c r="E144" s="1">
         <v>1.9</v>
       </c>
-      <c r="F144" s="3">
+      <c r="F144" s="1">
         <v>2</v>
       </c>
     </row>
@@ -5338,19 +5342,19 @@
       <c r="A145" s="2">
         <v>143</v>
       </c>
-      <c r="B145" s="3">
+      <c r="B145" s="1">
         <v>6.8</v>
       </c>
-      <c r="C145" s="3">
+      <c r="C145" s="1">
         <v>3.2</v>
       </c>
-      <c r="D145" s="3">
+      <c r="D145" s="1">
         <v>5.9</v>
       </c>
-      <c r="E145" s="3">
+      <c r="E145" s="1">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F145" s="3">
+      <c r="F145" s="1">
         <v>2</v>
       </c>
     </row>
@@ -5358,19 +5362,19 @@
       <c r="A146" s="2">
         <v>144</v>
       </c>
-      <c r="B146" s="3">
+      <c r="B146" s="1">
         <v>6.7</v>
       </c>
-      <c r="C146" s="3">
+      <c r="C146" s="1">
         <v>3.3</v>
       </c>
-      <c r="D146" s="3">
+      <c r="D146" s="1">
         <v>5.7</v>
       </c>
-      <c r="E146" s="3">
+      <c r="E146" s="1">
         <v>2.5</v>
       </c>
-      <c r="F146" s="3">
+      <c r="F146" s="1">
         <v>2</v>
       </c>
     </row>
@@ -5378,19 +5382,19 @@
       <c r="A147" s="2">
         <v>145</v>
       </c>
-      <c r="B147" s="3">
+      <c r="B147" s="1">
         <v>6.7</v>
       </c>
-      <c r="C147" s="3">
+      <c r="C147" s="1">
         <v>3</v>
       </c>
-      <c r="D147" s="3">
+      <c r="D147" s="1">
         <v>5.2</v>
       </c>
-      <c r="E147" s="3">
+      <c r="E147" s="1">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F147" s="3">
+      <c r="F147" s="1">
         <v>2</v>
       </c>
     </row>
@@ -5398,19 +5402,19 @@
       <c r="A148" s="2">
         <v>146</v>
       </c>
-      <c r="B148" s="3">
+      <c r="B148" s="1">
         <v>6.3</v>
       </c>
-      <c r="C148" s="3">
+      <c r="C148" s="1">
         <v>2.5</v>
       </c>
-      <c r="D148" s="3">
+      <c r="D148" s="1">
         <v>5</v>
       </c>
-      <c r="E148" s="3">
+      <c r="E148" s="1">
         <v>1.9</v>
       </c>
-      <c r="F148" s="3">
+      <c r="F148" s="1">
         <v>2</v>
       </c>
     </row>
@@ -5418,19 +5422,19 @@
       <c r="A149" s="2">
         <v>147</v>
       </c>
-      <c r="B149" s="3">
+      <c r="B149" s="1">
         <v>6.5</v>
       </c>
-      <c r="C149" s="3">
+      <c r="C149" s="1">
         <v>3</v>
       </c>
-      <c r="D149" s="3">
+      <c r="D149" s="1">
         <v>5.2</v>
       </c>
-      <c r="E149" s="3">
-        <v>2</v>
-      </c>
-      <c r="F149" s="3">
+      <c r="E149" s="1">
+        <v>2</v>
+      </c>
+      <c r="F149" s="1">
         <v>2</v>
       </c>
     </row>
@@ -5438,19 +5442,19 @@
       <c r="A150" s="2">
         <v>148</v>
       </c>
-      <c r="B150" s="3">
+      <c r="B150" s="1">
         <v>6.2</v>
       </c>
-      <c r="C150" s="3">
+      <c r="C150" s="1">
         <v>3.4</v>
       </c>
-      <c r="D150" s="3">
+      <c r="D150" s="1">
         <v>5.4</v>
       </c>
-      <c r="E150" s="3">
+      <c r="E150" s="1">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F150" s="3">
+      <c r="F150" s="1">
         <v>2</v>
       </c>
     </row>
@@ -5458,19 +5462,19 @@
       <c r="A151" s="2">
         <v>149</v>
       </c>
-      <c r="B151" s="3">
+      <c r="B151" s="1">
         <v>5.9</v>
       </c>
-      <c r="C151" s="3">
+      <c r="C151" s="1">
         <v>3</v>
       </c>
-      <c r="D151" s="3">
+      <c r="D151" s="1">
         <v>5.0999999999999996</v>
       </c>
-      <c r="E151" s="3">
+      <c r="E151" s="1">
         <v>1.8</v>
       </c>
-      <c r="F151" s="3">
+      <c r="F151" s="1">
         <v>2</v>
       </c>
     </row>
